--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C05FB1-E074-4021-AAA4-CD23743713F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914E353-2B1A-4751-AFB2-4B08BF756486}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1066">
   <si>
     <t>date</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Elastic 探秘之遗落的珍珠</t>
-  </si>
-  <si>
-    <t>雨花区软件大道48号苏豪国际广场B座趋势科技中国研发中心</t>
   </si>
   <si>
     <t>Elastic Stack中国首席布道师</t>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>The State of Elastic Stack</t>
-  </si>
-  <si>
-    <t>雨花区软件大道48号苏豪国际广场B座 趋势科技中国研发中心（靠花神庙地铁站）</t>
   </si>
   <si>
     <t>Elastic工程师与布道师</t>
@@ -1003,9 +997,6 @@
   </si>
   <si>
     <t>甲方安全看日志消息在ELK中的流转​</t>
-  </si>
-  <si>
-    <t>雨花区软件大道48号苏豪国际广场B座</t>
   </si>
   <si>
     <t>闻心科技上海研发中心总监</t>
@@ -11668,10 +11659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://elasticsearch.cn/slides/52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015-10-25</t>
   </si>
   <si>
@@ -12307,10 +12294,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -18682,6 +18665,239 @@
   <si>
     <t>https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海市长宁区金钟路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凌空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SOHO 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携程大厦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s://conf.elasticsearch.cn/2015/shanghai.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上海市长宁区金钟路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凌空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SOHO 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携程大厦</t>
+    </r>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2015/shanghai.html</t>
+  </si>
+  <si>
+    <t>Igor Motov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaunak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's new in Elasticsearch 2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logstash, what's cooking?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Igor Motov is a software developer on the Elasticsearch core team based out of the Boston area where he also serves as a co-organizer of the Boston Elasticsearch Meetup Group. Prior to joining Elastic, Igor worked on search solutions for companies ranging from small startups to large corporations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaunak Kashyap has been working as a backend developer in the Internet software industry for over a decade. Some of his more interesting past gigs include building a poker search and analytics engine; a system for tracking and analyzing the jail population in Louisville, Kentucky; and ground software to command and control earth-imaging satellites. Today, Shaunak works as a Developer Advocate at Elastic, the makers of Elasticsearch, Logstash and Kibana.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic software developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elasticsearch 2.0 release is just around the corner. In this talk we will cover new features, breaking changes and migration strategy for the next major release.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have all heard of Logstash, the easy-to-use, pluggable, data ingestion and enrichment framework. In a past edition of ESCC, you were introduced to Logstash, what it is capable of, and how to use it. In this presentation we will take a peek at the future of Logstash. Come hear what the Logstash team is busy cooking up!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1boF8Buf#list/path=%2FESCC%234%2F%E4%B8%8A%E6%B5%B7%E7%AB%99%2FPPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座趋势科技中国研发中心</t>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座 趋势科技中国研发中心（靠花神庙地铁站）</t>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座</t>
   </si>
 </sst>
 </file>
@@ -19184,10 +19400,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19196,7 +19412,7 @@
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="4" customWidth="1"/>
@@ -19243,37 +19459,37 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19299,13 +19515,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19331,13 +19547,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19363,10 +19579,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19377,60 +19593,60 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19441,28 +19657,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19473,28 +19689,28 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19505,28 +19721,28 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19537,28 +19753,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19569,28 +19785,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19601,28 +19817,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19633,28 +19849,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19665,28 +19881,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
@@ -19697,28 +19913,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="249" x14ac:dyDescent="0.3">
@@ -19729,28 +19945,28 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
@@ -19761,28 +19977,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19793,28 +20009,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
@@ -19825,28 +20041,28 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19857,28 +20073,28 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19889,28 +20105,28 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
@@ -19921,28 +20137,28 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19953,28 +20169,28 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
@@ -19985,28 +20201,28 @@
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
@@ -20017,630 +20233,630 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>985</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>989</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>970</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="K28" s="12" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="H30" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="H35" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="K35" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="H36" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="K36" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="H37" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>605</v>
-      </c>
       <c r="K37" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="H38" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>718</v>
-      </c>
       <c r="K38" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="K39" s="12" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="H40" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="K40" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="H41" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="H42" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="K42" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="K43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="H44" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="K44" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>667</v>
-      </c>
       <c r="K45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -20657,25 +20873,25 @@
         <v>40</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -20686,31 +20902,31 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="K47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20721,28 +20937,28 @@
         <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="H48" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="K48" s="12" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20753,31 +20969,31 @@
         <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="H49" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="K49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20785,31 +21001,31 @@
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="K50" s="12" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
@@ -20820,1010 +21036,1010 @@
         <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="H51" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="H53" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>978</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="K53" s="12" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="F54" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="H54" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="K54" s="12" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="F55" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="H55" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="K55" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="H56" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>644</v>
-      </c>
       <c r="K56" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="F58" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="H58" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="K58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="F59" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="H59" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>610</v>
-      </c>
       <c r="K59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="F60" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="H60" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>620</v>
-      </c>
       <c r="K60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="K62" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="H63" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="K63" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>772</v>
-      </c>
       <c r="J64" s="12" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="H65" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="H66" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="K66" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="H67" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="K67" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>634</v>
-      </c>
       <c r="K68" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="H70" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="K70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="H71" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>574</v>
-      </c>
       <c r="K71" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="H72" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>694</v>
-      </c>
       <c r="K72" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="H73" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="K73" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="H75" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="K75" s="12" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="J78" s="12" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="H80" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="F81" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="H81" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="J81" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="F82" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="H82" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="J82" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>39</v>
@@ -21832,457 +22048,457 @@
         <v>28</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="H83" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="K84" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="H85" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="K85" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="H86" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="J86" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>629</v>
-      </c>
       <c r="K86" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="H87" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="K87" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="H88" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="K89" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="H90" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="K90" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="H92" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="J92" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="F93" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="H93" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="J93" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="105" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="F94" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="J94" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="F95" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="J95" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>808</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>811</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="16" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22308,13 +22524,13 @@
         <v>32</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -22325,31 +22541,31 @@
         <v>27</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F98" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="K98" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
@@ -22360,31 +22576,31 @@
         <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="K99" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
@@ -22395,66 +22611,66 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="K100" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="I101" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J101" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="K101" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
@@ -22465,31 +22681,31 @@
         <v>27</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
@@ -22500,31 +22716,31 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
@@ -22535,31 +22751,31 @@
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="192" x14ac:dyDescent="0.3">
@@ -22570,31 +22786,31 @@
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
@@ -22605,31 +22821,31 @@
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22640,31 +22856,31 @@
         <v>27</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -22675,31 +22891,31 @@
         <v>27</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
@@ -22710,88 +22926,88 @@
         <v>27</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="J110" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E111" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
@@ -22800,491 +23016,491 @@
         <v>28</v>
       </c>
       <c r="D112" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H112" s="6" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="G113" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="H113" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="K114" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="J115" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="K115" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="H116" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="J116" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="K116" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="J117" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="K117" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D118" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F118" s="4" t="s">
+      <c r="J118" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="K118" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="H119" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="J119" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="K119" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>324</v>
+        <v>1065</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="K121" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="H123" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="K123" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C124" s="4" t="s">
+      <c r="F124" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="J124" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E124" s="4" t="s">
+      <c r="K124" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="F125" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="J125" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" s="4" t="s">
+      <c r="K125" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="F126" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="J126" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E126" s="4" t="s">
+      <c r="K126" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="4" t="s">
+      <c r="F127" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E127" s="4" t="s">
+      <c r="K127" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>27</v>
@@ -23293,438 +23509,450 @@
         <v>28</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E129" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="I130" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="J130" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="K130" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E131" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F132" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>858</v>
-      </c>
       <c r="H132" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="J134" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="K134" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="K135" s="12" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="H136" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="I136" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>869</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="K136" s="12" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K138" s="12" t="s">
-        <v>873</v>
+        <v>102</v>
+      </c>
+      <c r="K138" s="20" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>875</v>
+      <c r="A139" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>1062</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="J139" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>882</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="K139" s="12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F140" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>878</v>
-      </c>
       <c r="G140" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>105</v>
+        <v>808</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>1056</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>106</v>
+        <v>1059</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>1061</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>895</v>
+        <v>1051</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>885</v>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>889</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>580</v>
+        <v>808</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K142" s="12" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F144" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="F143" s="15" t="s">
+      <c r="G144" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="G143" s="15" t="s">
-        <v>887</v>
-      </c>
-      <c r="H143" s="8" t="s">
+      <c r="H144" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="K143" s="12" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>1035</v>
+      <c r="H145" s="8" t="s">
+        <v>880</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>1034</v>
+        <v>648</v>
+      </c>
+      <c r="K145" s="12" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23735,34 +23963,34 @@
         <v>27</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>907</v>
+        <v>32</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>893</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -23770,34 +23998,34 @@
         <v>27</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>363</v>
+        <v>202</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>364</v>
+        <v>207</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>902</v>
+        <v>208</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>891</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>366</v>
+        <v>209</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>34</v>
       </c>
@@ -23805,31 +24033,31 @@
         <v>27</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>897</v>
+        <v>283</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>902</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23840,34 +24068,34 @@
         <v>27</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>899</v>
+        <v>360</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>900</v>
+        <v>362</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>897</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>34</v>
       </c>
@@ -23875,31 +24103,31 @@
         <v>27</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>901</v>
+        <v>367</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23910,31 +24138,31 @@
         <v>27</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>474</v>
+        <v>436</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>894</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>905</v>
+        <v>441</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>895</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23945,28 +24173,31 @@
         <v>27</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>903</v>
+      <c r="F152" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>896</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23977,31 +24208,31 @@
         <v>27</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>645</v>
+        <v>470</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>646</v>
+        <v>471</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>647</v>
+        <v>472</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>647</v>
+        <v>473</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>648</v>
+        <v>474</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24012,287 +24243,355 @@
         <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>673</v>
+        <v>488</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>674</v>
+        <v>489</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>906</v>
+      <c r="F154" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>898</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>677</v>
+        <v>490</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>250</v>
+        <v>642</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>251</v>
+        <v>643</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>252</v>
+        <v>36</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>253</v>
+        <v>644</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>254</v>
+        <v>645</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>377</v>
+        <v>670</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>378</v>
+        <v>671</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>379</v>
+        <v>672</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>914</v>
+        <v>673</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>901</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>381</v>
+        <v>674</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>451</v>
+        <v>248</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>456</v>
+        <v>249</v>
       </c>
       <c r="E157" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="K157" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>912</v>
+        <v>377</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>909</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>1045</v>
+      <c r="K161" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K160" s="12" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K161" s="12" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>920</v>
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>912</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>924</v>
+      <c r="D162" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>913</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>916</v>
+      </c>
       <c r="C163" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F163" s="18" t="s">
-        <v>983</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>1050</v>
+        <v>28</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K164" s="12" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C165" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:J163">
-    <sortCondition descending="1" ref="A153"/>
+  <sortState ref="A2:J165">
+    <sortCondition descending="1" ref="A155"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I74" r:id="rId1" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
     <hyperlink ref="I15" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
+    <hyperlink ref="K138" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914E353-2B1A-4751-AFB2-4B08BF756486}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F11F9A-496A-4254-AC79-2C5297F3F05E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1067">
   <si>
     <t>date</t>
   </si>
@@ -514,9 +514,6 @@
     <t>陈超，七牛云技术总监，Spark Summit China 出品人， 专注于大规模分布式计算与机器学习领域。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170619/ebd39b6b26650c40e455a6e15b31b4a8.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/31</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
   </si>
   <si>
     <t>华南师大硕士，职场新人，搜索应用开发猿。接触ES时间不久，但对其技术拥有极厚的兴趣，希望能和各位大牛交流学习如何玩转ES，不断优化查询，一切为了搜索~</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20171205/8e3a73b4a9801a85c892f0ce0a77ae0a.jpeg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/8</t>
@@ -609,9 +603,6 @@
   </si>
   <si>
     <t>网易藏宝阁工作室资深开发工程师，目前主要从事藏宝阁推荐业务相关的研发工作。</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20171116/4e1e91e96d2ad8a87e5206a056769fdd.jpg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/12</t>
@@ -1107,9 +1098,6 @@
     <t>网易 GDC产品组资深运维工程师，主要负责内部 ELK 产品的运维、功能开发等工作。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20171113/b02ab70c2fc5bc9a337e80fe8e10edec.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/10</t>
   </si>
   <si>
@@ -1222,9 +1210,6 @@
     <t>快手视频技术工程师最早加入快手的视频技术工程师，负责移动直播系统的构建和调优，并且搭建了基于大数据的质量监测系统，之前曾在腾讯从事实时视音频传输优化工作。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/976c8d7197283871ee9d63f87be5956c.png</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/78</t>
   </si>
   <si>
@@ -1283,9 +1268,6 @@
   </si>
   <si>
     <t>Hulu软件工程师，ELK粉。主要负责用户播放日志数据的收集，处理和可视化，以及服务监控。</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/bc0f0f38ca7976a592e5db2e5d23adb5.png</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/76</t>
@@ -1383,9 +1365,6 @@
     <t>嘀哒物流科技有限公司运维组组长</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/af9c0000a8b15ac3cd67ad2192d57453.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/22</t>
   </si>
   <si>
@@ -1600,9 +1579,6 @@
     <t>5miles搜索工程师</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20160511/d34e985a7e1a0da1414f53c787bc535e.png</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/81</t>
   </si>
   <si>
@@ -1757,9 +1733,6 @@
     <t>数说故事平台架构团队 高级工程师，负责数说故事百亿级数据的存储查询及内部基础平台建设。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20171113/223514fbca8a18e369ad985fbd512087.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/11</t>
   </si>
   <si>
@@ -1832,9 +1805,6 @@
     <t>华为日志服务特性负责人。从2015年起开始接触Elasticsearch并使用至今。先后负责服务调用链和日志服务特性的设计和开发，依托Elasticsearch实现搜索相关能力。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/56495a60bf5ca870f9dc09dc4f17ee30.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/24</t>
   </si>
   <si>
@@ -1922,9 +1892,6 @@
     <t>从2013年开始投入大数据处理与机器学习，目前依托Elasticsearch的搜索能力构建了一系列的智能服务。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/159e9c7923e2e86b721d256a29f6d420.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/23</t>
   </si>
   <si>
@@ -1935,9 +1902,6 @@
   </si>
   <si>
     <t>vivo互联网搜索团队负责人</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20171204/dad05509452c3ebe9aaf47748daa77ac.png</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/7</t>
@@ -2088,9 +2052,6 @@
     <t>2010年参加工作，工作内容包括：Windows音频驱动及声卡固件；Linux高并发服务器；数据采集及分析。自2015年开始接触Elasticsearch，在工作中使用ES进行网络数据（TCP/HTTP/DNS等）的安全分析。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20170508/091945b91510ab94981099a09359b18a.png</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/25</t>
   </si>
   <si>
@@ -2119,9 +2080,6 @@
   </si>
   <si>
     <t>阿里巴巴搜索产品专家，负责阿里云搜索产品规划和开发。</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20171113/c3a59cbde51da8da3c0ed110ac79554e.jpg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/13</t>
@@ -2176,9 +2134,6 @@
     <t>酷狗后台开发工程师，从事JAVA、ES相关的开发工作。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20171114/4c06000449ab3ea0723be2a903613efa.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/14</t>
   </si>
   <si>
@@ -2216,9 +2171,6 @@
   </si>
   <si>
     <t>多年大数据经验，现专注于Spark/ES 相关领域</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/uploads/article/20160511/13f62f4486b8faae40bb4fdf41a5881f.png</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/82</t>
@@ -10732,10 +10684,6 @@
     <t>广州欢聚时代网络技术有限公司</t>
   </si>
   <si>
-    <t>http://meetup.elasticsearch.loc/static/images/organizer/lhz.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Elasticsearch </t>
     </r>
@@ -12160,13 +12108,6 @@
   </si>
   <si>
     <t>负责网站运维监控与自动化工具的研发。15年通讯与IT行业从业经历， 曾主要供职于Strategic Systems Solutions、eBay、Morgan Stanley等跨国企业，在软件研发与集成， 大规模分布式系统技术支持方面有比较丰富的经验。目前感兴趣的研究方向是如何将大数据分析技术有效用于网站监控。</t>
-  </si>
-  <si>
-    <t>http://meetup.elasticsearch.loc/static/images/organizer/kennywu.jpg</t>
-  </si>
-  <si>
-    <t>http://meetup.elasticsearch.loc/static/images/organizer/kennywu.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015-10-25</t>
@@ -18611,49 +18552,16 @@
     <t>https://conf.elasticsearch.cn/2015/beijing.html</t>
   </si>
   <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/gp.jpg</t>
-  </si>
-  <si>
     <t>https://conf.elasticsearch.cn/static/images/2015/speakers/jn.jpg</t>
   </si>
   <si>
     <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lx.jpg</t>
   </si>
   <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lbt@2x.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/qqq.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/sbq.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/txn.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/ybz.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/zl.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/hc.jpg</t>
-  </si>
-  <si>
     <t>https://conf.elasticsearch.cn/2014/beijing.html</t>
   </si>
   <si>
-    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/lg.jpg</t>
-  </si>
-  <si>
     <t>https://conf.elasticsearch.cn/static/images/2014/speakers/rcl.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/sj.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/zwl.jpg</t>
   </si>
   <si>
     <t>https://conf.elasticsearch.cn/static/images/2018/speakers/galen.png</t>
@@ -18898,6 +18806,106 @@
   </si>
   <si>
     <t>雨花台区软件大道48号苏豪国际广场B座</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶琛琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/rcl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高攀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/gp.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lbt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/qqq.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/organizer/kennywu.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/cg.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/dx.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/lbj.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/wwj.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/zhy.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/cc.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/qsx.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/xsx.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/ywj.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/zld.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/lz.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/ns.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/why.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/zwl.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/organizer/lhz.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/sbq.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/txn.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/ybz.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/zl.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/lg.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/static/images/speakers/sj.jpg</t>
   </si>
 </sst>
 </file>
@@ -19058,7 +19066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19092,6 +19100,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19402,8 +19411,8 @@
   </sheetPr>
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="F151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19459,37 +19468,37 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19515,13 +19524,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19547,13 +19556,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19579,10 +19588,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19608,18 +19617,18 @@
         <v>116</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -19640,13 +19649,13 @@
         <v>120</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19672,13 +19681,13 @@
         <v>124</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19689,7 +19698,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>142</v>
@@ -19704,13 +19713,13 @@
         <v>144</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19721,28 +19730,28 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19753,28 +19762,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19785,28 +19794,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19817,28 +19826,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19849,28 +19858,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19881,28 +19890,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>1046</v>
+        <v>1016</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
@@ -19913,28 +19922,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="249" x14ac:dyDescent="0.3">
@@ -19945,28 +19954,28 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
@@ -19977,28 +19986,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20009,28 +20018,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
@@ -20041,28 +20050,28 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20073,28 +20082,28 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20105,28 +20114,28 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
@@ -20137,28 +20146,28 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20169,28 +20178,28 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
@@ -20201,28 +20210,28 @@
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
@@ -20233,57 +20242,57 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20294,7 +20303,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>138</v>
@@ -20306,7 +20315,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -20317,16 +20326,16 @@
         <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>141</v>
@@ -20340,28 +20349,28 @@
         <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>141</v>
@@ -20375,22 +20384,22 @@
         <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>887</v>
+        <v>1043</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>141</v>
@@ -20404,10 +20413,10 @@
         <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>139</v>
@@ -20427,16 +20436,16 @@
         <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>141</v>
@@ -20444,177 +20453,177 @@
     </row>
     <row r="34" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="H34" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="H35" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="K35" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -20646,7 +20655,7 @@
         <v>152</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20657,28 +20666,28 @@
         <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>153</v>
@@ -20692,28 +20701,28 @@
         <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>151</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>153</v>
@@ -20727,28 +20736,28 @@
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>153</v>
@@ -20762,28 +20771,28 @@
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>153</v>
@@ -20797,28 +20806,28 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>153</v>
@@ -20832,28 +20841,28 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>153</v>
@@ -20873,7 +20882,7 @@
         <v>40</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>41</v>
@@ -20882,7 +20891,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>43</v>
@@ -20902,28 +20911,28 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="H47" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>45</v>
@@ -20937,28 +20946,28 @@
         <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="H48" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="K48" s="12" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20969,28 +20978,28 @@
         <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>45</v>
@@ -21004,28 +21013,28 @@
         <v>81</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
@@ -21036,28 +21045,28 @@
         <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>45</v>
@@ -21065,10 +21074,10 @@
     </row>
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>28</v>
@@ -21077,147 +21086,147 @@
         <v>109</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21231,7 +21240,7 @@
         <v>28</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>48</v>
@@ -21243,7 +21252,7 @@
         <v>50</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>51</v>
@@ -21260,25 +21269,25 @@
         <v>47</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>52</v>
@@ -21292,25 +21301,25 @@
         <v>47</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>52</v>
@@ -21324,25 +21333,25 @@
         <v>47</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>52</v>
@@ -21350,433 +21359,433 @@
     </row>
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="H61" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="H62" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="K62" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="H66" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="K66" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>630</v>
+        <v>757</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>1036</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="H70" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="K70" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>570</v>
+        <v>762</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>1047</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>690</v>
+        <v>764</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>1048</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>708</v>
+        <v>765</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>1049</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -21796,19 +21805,19 @@
         <v>62</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>1047</v>
+        <v>1017</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21828,13 +21837,13 @@
         <v>56</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -21860,7 +21869,7 @@
         <v>63</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -21871,16 +21880,16 @@
         <v>54</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>58</v>
@@ -21888,22 +21897,22 @@
     </row>
     <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21923,7 +21932,7 @@
         <v>83</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>84</v>
@@ -21955,13 +21964,13 @@
         <v>160</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="I80" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>85</v>
@@ -21975,28 +21984,28 @@
         <v>81</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>85</v>
@@ -22010,28 +22019,28 @@
         <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>85</v>
@@ -22051,7 +22060,7 @@
         <v>65</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>66</v>
@@ -22060,7 +22069,7 @@
         <v>67</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>68</v>
@@ -22077,28 +22086,28 @@
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>446</v>
+        <v>777</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>1051</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>69</v>
@@ -22112,28 +22121,28 @@
         <v>39</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>595</v>
+        <v>779</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>1052</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>69</v>
@@ -22147,28 +22156,28 @@
         <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>625</v>
+        <v>778</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>1053</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>69</v>
@@ -22182,28 +22191,28 @@
         <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>679</v>
+        <v>780</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>1054</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>69</v>
@@ -22211,104 +22220,104 @@
     </row>
     <row r="88" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="H88" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="J88" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="K88" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>393</v>
+        <v>783</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>1055</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>414</v>
+        <v>781</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>1056</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22328,7 +22337,7 @@
         <v>77</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>78</v>
@@ -22345,25 +22354,25 @@
         <v>47</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>79</v>
@@ -22377,28 +22386,28 @@
         <v>47</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>79</v>
@@ -22412,28 +22421,28 @@
         <v>47</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>79</v>
@@ -22447,25 +22456,25 @@
         <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>79</v>
@@ -22473,10 +22482,10 @@
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>28</v>
@@ -22486,19 +22495,19 @@
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="16" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22524,13 +22533,13 @@
         <v>32</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -22556,16 +22565,16 @@
         <v>128</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
@@ -22591,16 +22600,16 @@
         <v>133</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>134</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
@@ -22611,66 +22620,66 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
@@ -22681,31 +22690,31 @@
         <v>27</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
@@ -22716,31 +22725,31 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
@@ -22751,31 +22760,31 @@
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="192" x14ac:dyDescent="0.3">
@@ -22786,31 +22795,31 @@
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
@@ -22821,31 +22830,31 @@
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22856,31 +22865,31 @@
         <v>27</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -22891,31 +22900,31 @@
         <v>27</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
@@ -22926,83 +22935,83 @@
         <v>27</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="J110" s="4" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="F111" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23025,13 +23034,13 @@
         <v>73</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23042,25 +23051,25 @@
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>74</v>
@@ -23074,22 +23083,22 @@
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>74</v>
@@ -23103,191 +23112,191 @@
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G116" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="H116" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="J116" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F116" s="4" t="s">
+      <c r="K116" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="J117" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="K117" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="G118" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -23310,7 +23319,7 @@
         <v>89</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -23330,7 +23339,7 @@
         <v>96</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23341,25 +23350,25 @@
         <v>81</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23370,22 +23379,22 @@
         <v>81</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>90</v>
@@ -23399,22 +23408,22 @@
         <v>81</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>90</v>
@@ -23428,22 +23437,22 @@
         <v>81</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>90</v>
@@ -23457,22 +23466,22 @@
         <v>81</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>90</v>
@@ -23480,7 +23489,7 @@
     </row>
     <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>28</v>
@@ -23489,13 +23498,13 @@
         <v>97</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23509,13 +23518,13 @@
         <v>28</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>93</v>
@@ -23532,25 +23541,25 @@
         <v>27</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>518</v>
+        <v>885</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>1057</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>94</v>
@@ -23564,25 +23573,25 @@
         <v>27</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>722</v>
+        <v>887</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>1058</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>94</v>
@@ -23590,119 +23599,119 @@
     </row>
     <row r="132" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>866</v>
+        <v>1059</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>28</v>
@@ -23711,18 +23720,18 @@
         <v>99</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>100</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>28</v>
@@ -23731,21 +23740,21 @@
         <v>101</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>154</v>
@@ -23754,123 +23763,123 @@
         <v>155</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1052</v>
+        <v>1022</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1054</v>
+        <v>1024</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1053</v>
+        <v>1023</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1055</v>
+        <v>1025</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>1057</v>
+        <v>1027</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>28</v>
@@ -23879,80 +23888,80 @@
         <v>103</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>888</v>
+        <v>1043</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>1048</v>
+        <v>1018</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>1049</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23978,16 +23987,16 @@
         <v>32</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.3">
@@ -23997,32 +24006,32 @@
       <c r="B147" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>202</v>
+      <c r="C147" s="13" t="s">
+        <v>1039</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>1030</v>
+        <v>872</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>1040</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24033,31 +24042,31 @@
         <v>27</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24068,31 +24077,31 @@
         <v>27</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
@@ -24103,31 +24112,31 @@
         <v>27</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>1033</v>
+        <v>873</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>1041</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24138,31 +24147,31 @@
         <v>27</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>1034</v>
+        <v>876</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>1042</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24172,32 +24181,32 @@
       <c r="B152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>448</v>
+      <c r="C152" s="13" t="s">
+        <v>1037</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>1030</v>
+        <v>877</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>1038</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24208,31 +24217,31 @@
         <v>27</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>1035</v>
+        <v>881</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>1060</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24243,28 +24252,28 @@
         <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>1036</v>
+        <v>879</v>
+      </c>
+      <c r="I154" s="21" t="s">
+        <v>1061</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24275,31 +24284,31 @@
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>1037</v>
+        <v>884</v>
+      </c>
+      <c r="I155" s="21" t="s">
+        <v>1062</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24310,202 +24319,202 @@
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>1038</v>
+        <v>882</v>
+      </c>
+      <c r="I156" s="21" t="s">
+        <v>1063</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="H157" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="I157" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="K157" s="4" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="K158" s="4" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="K159" s="4" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="195" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>1043</v>
+        <v>888</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>1066</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>1044</v>
+        <v>892</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>1058</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>28</v>
@@ -24514,70 +24523,70 @@
         <v>105</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C165" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>1045</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -24590,8 +24599,36 @@
     <hyperlink ref="I74" r:id="rId1" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
     <hyperlink ref="I15" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
     <hyperlink ref="K138" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
+    <hyperlink ref="I68" r:id="rId4" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
+    <hyperlink ref="I152" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
+    <hyperlink ref="I147" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
+    <hyperlink ref="I150" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
+    <hyperlink ref="I151" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
+    <hyperlink ref="I80" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
+    <hyperlink ref="I65" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
+    <hyperlink ref="I69" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
+    <hyperlink ref="I157" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
+    <hyperlink ref="I70" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
+    <hyperlink ref="I158" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
+    <hyperlink ref="I89" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
+    <hyperlink ref="I90" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
+    <hyperlink ref="I84" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
+    <hyperlink ref="I160" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
+    <hyperlink ref="I154" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
+    <hyperlink ref="I130" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
+    <hyperlink ref="I71" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
+    <hyperlink ref="I85" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
+    <hyperlink ref="I86" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
+    <hyperlink ref="I155" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
+    <hyperlink ref="I87" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
+    <hyperlink ref="I72" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
+    <hyperlink ref="I73" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
+    <hyperlink ref="I131" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
+    <hyperlink ref="I161" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
+    <hyperlink ref="I156" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
+    <hyperlink ref="I153" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F11F9A-496A-4254-AC79-2C5297F3F05E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E81670-0598-4368-B22C-17572FE070DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1068">
   <si>
     <t>date</t>
   </si>
@@ -18906,6 +18906,10 @@
   </si>
   <si>
     <t>https://meetup.elasticsearch.cn/static/images/speakers/sj.jpg</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19411,8 +19415,8 @@
   </sheetPr>
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+    <sheetView tabSelected="1" topLeftCell="I36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20648,13 +20652,13 @@
       <c r="G39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>151</v>
+      <c r="I39" s="21" t="s">
+        <v>1067</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="20" t="s">
         <v>902</v>
       </c>
     </row>
@@ -24627,8 +24631,10 @@
     <hyperlink ref="I161" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
     <hyperlink ref="I156" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
     <hyperlink ref="I153" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
+    <hyperlink ref="K39" r:id="rId32" xr:uid="{75AEBA56-F842-4258-ABB6-1DD78D236C23}"/>
+    <hyperlink ref="I39" r:id="rId33" xr:uid="{4E525297-9BB1-48CF-B788-B6AC53A48A80}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E81670-0598-4368-B22C-17572FE070DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B9673-7B36-4538-BD72-3B777F4E1600}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1098">
   <si>
     <t>date</t>
   </si>
@@ -152,13 +152,7 @@
 2015年加入Elastic，Elastic 中文社区的发起人，Elastic在中国的首位员工。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/nanjing/images/speakers/medcl.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/112</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/nanjing.html</t>
   </si>
   <si>
     <t>2018-03-24</t>
@@ -484,13 +478,7 @@
 目前致力于解决分布式，高并发，大数据量等各种技术难题与挑战，持续优化公司基础架构产品，保证系统高可靠、高性能、高可扩展性。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/lj.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/116</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/shanghai.html</t>
   </si>
   <si>
     <t>查超</t>
@@ -578,9 +566,6 @@
 现在eBay 的ElasticSearch管理平台Pronto项目组工作，主要方向是ElasticSearch集群的部署和性能调优。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/120</t>
   </si>
   <si>
@@ -672,9 +657,6 @@
   </si>
   <si>
     <t>2015年从事大数据研究工作，目前负责Elasticsearch的源码研究工作和定制化开发，对苏宁使用Elasticsearch的业务提供技术支持和解决方案。</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/nanjing/images/speakers/hbj.jpg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/114</t>
@@ -837,15 +819,9 @@
 目前主要负责数据分析平台ETL工具以及数据平台开发。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/127</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/beijing.html</t>
-  </si>
-  <si>
     <t>姜国强</t>
   </si>
   <si>
@@ -891,9 +867,6 @@
     <t>负责58集团信息安全中台中的核心系统猎人平台的建设，见证了58风控从系统到平台，再到中台的升级。对低延迟、高并发、分布式、调用链跟踪、JVM架构等多个领域有深入研究以及实践经验。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/kwl.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/124</t>
   </si>
   <si>
@@ -1012,9 +985,6 @@
   </si>
   <si>
     <t>负责Hadoop平台和Elasticsearch集群的管理、架构和部分项目管理，目前正积极研究基于k8s的人工智能平台落地方案。</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/nanjing/images/speakers/lwq.jpg</t>
   </si>
   <si>
     <t>李啸</t>
@@ -1243,9 +1213,6 @@
     <t>来自于Teambition，高级后端工程师，负责搜索基础平台和日志查询系统。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/mwj.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/121</t>
   </si>
   <si>
@@ -1509,9 +1476,6 @@
     <t>曾在亚信联创电信事业部从事计费产品工作多年，2年前加入南京云利来。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/nanjing/images/speakers/thb.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/113</t>
   </si>
   <si>
@@ -1610,9 +1574,6 @@
 当然我们有自己的检索系统，思路跟ES也有很多相似之处，17年10月份开始接触ES。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/wp.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/128</t>
   </si>
   <si>
@@ -1628,9 +1589,6 @@
     <t>曾就职于百度、饿了么，2017年加入B站，负责B站日志平台的设计和开发工作。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wxy.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/118</t>
   </si>
   <si>
@@ -1818,9 +1776,6 @@
   </si>
   <si>
     <t>2017年毕业后就职于58到家，担任后端服务部Java工程师，负责公司的搜索服务，日志收集等项目</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/xty.jpg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/125</t>
@@ -2003,9 +1958,6 @@
 17年加入阿里巴巴，现在阿里云Elasticsearch团队，负责相关工作。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/zjj.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/122</t>
   </si>
   <si>
@@ -2110,9 +2062,6 @@
 个人技术兴趣广泛，擅长系统设计与服务调优，目前专注于大数据领域。</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/nanjing/images/speakers/zw.jpg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/115</t>
   </si>
   <si>
@@ -2147,9 +2096,6 @@
   </si>
   <si>
     <t>2015年硕士毕业，随后加入果壳网平台组，任算法工程师。维护和构建搜索排序/个性化推荐/anti-spam。也有一些其他的机器学习和深度学习相关的实验项目。</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/zjy.jpg</t>
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/123</t>
@@ -15424,10 +15370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/shanghai.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-11-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17852,10 +17794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/nanjing.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -18425,10 +18363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京尚德机构</t>
   </si>
   <si>
@@ -18504,9 +18438,6 @@
     <t>https://conf.elasticsearch.cn/static/images/2018/speakers/jgq.png</t>
   </si>
   <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/wb1.png</t>
-  </si>
-  <si>
     <t>https://conf.elasticsearch.cn/2016/beijing.html</t>
   </si>
   <si>
@@ -18571,10 +18502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -18808,10 +18735,6 @@
     <t>雨花台区软件大道48号苏豪国际广场B座</t>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饶琛琳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18836,87 +18759,718 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://meetup.elasticsearch.cn/static/images/organizer/kennywu.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/cg.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/dx.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/lbj.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/wwj.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/zhy.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/zw.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/cc.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/qsx.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/xsx.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/ywj.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/zld.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/lz.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/ns.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/why.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/zwl.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/organizer/lhz.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/sbq.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/txn.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/ybz.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/zl.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/hc.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/lg.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/static/images/speakers/sj.jpg</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://elasticsearch.cn/slides/155</t>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/15</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joen Van Driel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic VP APJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Joen Van Driel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副总裁，负责管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在亚太区的业务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在技术行业拥有超过二十年的丰富经验，主要专注于销售管理、战略和业务开发等方向。在担任此岗位之前，他曾在甲骨文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (Oracle) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任云应用部门的副总裁，还曽在谷歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (Google) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Google Cloud </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门的国家经理，而且还在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Google Enterprise Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Adobe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Salesforce.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任过领导职位。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生于韩国，并且在中国香港、新加坡、澳大利亚、爱尔兰、菲律宾和荷兰都生活过。他目前定居荷兰，有两个孩子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有阿姆斯特丹大学的金融经济学博士学位。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic 亚太区副总裁致开场发言，介绍 Elastic 最新进展和趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Elastic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国开发者大会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新进展和趋势</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/joen.png</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/shanghai/1001.html</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/beijing/1001.html</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/nanjing/1001.html</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/wb.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/kennywu.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/kwl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/wp.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/xty.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/zjy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/clh.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/dmy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/lj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/mwj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/hp.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/wxy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/zjj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/medcl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/hbj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/lwq.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/thb.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/cg.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/yzt.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/dx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lbj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/wwj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zhy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/bf.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/cc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/qsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/xsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ywj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zld.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ns.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/why.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zwl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/lhz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sbq.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/txn.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ybz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lg.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sj.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19047,6 +19601,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19413,10 +19974,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19472,37 +20033,37 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19528,13 +20089,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>972</v>
+        <v>951</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>1042</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19560,13 +20124,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>974</v>
+        <v>953</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>1035</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19576,26 +20143,32 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
+      <c r="C5" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1048</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>906</v>
+      <c r="F5" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>1047</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19606,92 +20179,98 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>973</v>
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>903</v>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>976</v>
+        <v>114</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>1023</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>884</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>977</v>
+        <v>118</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>1041</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19701,29 +20280,32 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>911</v>
+      <c r="C9" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>978</v>
+        <v>956</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>1030</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19734,28 +20316,31 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>973</v>
+        <v>957</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19766,28 +20351,31 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>980</v>
+        <v>958</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>1032</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19798,28 +20386,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>981</v>
+        <v>959</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>1031</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19830,28 +20421,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>919</v>
+        <v>193</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>898</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>982</v>
+        <v>960</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>1021</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19862,28 +20456,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>921</v>
+        <v>204</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>983</v>
+        <v>961</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>1034</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19894,31 +20491,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>1016</v>
+        <v>902</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>1038</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -19926,31 +20526,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>984</v>
+        <v>237</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>1026</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="249" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -19958,31 +20561,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>927</v>
+        <v>289</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>985</v>
+        <v>963</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>1040</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="249" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -19990,31 +20596,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>929</v>
+        <v>292</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>908</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>986</v>
+        <v>964</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>1037</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -20022,31 +20631,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>931</v>
+        <v>306</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>910</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>987</v>
+        <v>965</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>1025</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -20054,31 +20666,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>933</v>
+        <v>359</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>912</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>988</v>
+        <v>966</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>1029</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -20086,28 +20701,31 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>935</v>
+        <v>393</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>914</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>989</v>
+        <v>967</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>1024</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20118,31 +20736,34 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>937</v>
+        <v>440</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>990</v>
+        <v>968</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>1033</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -20150,31 +20771,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>542</v>
+        <v>441</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>939</v>
+        <v>443</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>918</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>991</v>
+        <v>969</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>1049</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -20182,31 +20806,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>941</v>
+        <v>530</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>920</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>992</v>
+        <v>970</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>1028</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -20214,31 +20841,34 @@
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>637</v>
+        <v>541</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>943</v>
+        <v>543</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>922</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>984</v>
+        <v>971</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>1036</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -20246,668 +20876,674 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>973</v>
       </c>
+      <c r="J28" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>952</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>962</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>973</v>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>928</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>947</v>
-      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="189" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="34" spans="1:11" ht="207" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>263</v>
+        <v>683</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>269</v>
+        <v>552</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>286</v>
+        <v>702</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>1056</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>270</v>
+        <v>1052</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>519</v>
+        <v>276</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>719</v>
+        <v>277</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>704</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>521</v>
+        <v>1057</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>522</v>
+        <v>278</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>270</v>
+        <v>1052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>589</v>
+        <v>507</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>721</v>
+        <v>508</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>701</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>591</v>
+        <v>1058</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>270</v>
+        <v>1052</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>695</v>
+        <v>573</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>696</v>
+        <v>574</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>697</v>
+        <v>575</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>723</v>
+        <v>576</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>703</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>699</v>
+        <v>1059</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>700</v>
+        <v>577</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>270</v>
+        <v>1052</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I40" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" s="21" t="s">
+      <c r="K40" s="20" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>902</v>
+      <c r="J46" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>1051</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -20915,34 +21551,34 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>214</v>
+        <v>42</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>1068</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>45</v>
+        <v>1053</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>38</v>
       </c>
@@ -20950,28 +21586,31 @@
         <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>323</v>
+        <v>205</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>949</v>
+        <v>208</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>716</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>948</v>
+        <v>1069</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20982,31 +21621,28 @@
         <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>484</v>
+        <v>314</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>485</v>
+        <v>315</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>733</v>
+        <v>929</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>45</v>
+        <v>1070</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21014,1539 +21650,1542 @@
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>951</v>
+        <v>39</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>668</v>
+        <v>474</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>669</v>
+        <v>1010</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>670</v>
+        <v>475</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>671</v>
+        <v>476</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>952</v>
+        <v>715</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>950</v>
+        <v>1071</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>1053</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>739</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>28</v>
+        <v>666</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>109</v>
+        <v>667</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>1010</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>736</v>
+        <v>668</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1072</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>737</v>
+        <v>670</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>81</v>
+      <c r="A53" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>721</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>458</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>461</v>
+        <v>723</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>953</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>955</v>
+        <v>449</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>934</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>598</v>
+        <v>465</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>599</v>
+        <v>466</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>956</v>
+        <v>468</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>935</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>957</v>
+        <v>586</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>936</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>46</v>
+        <v>444</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>748</v>
+        <v>610</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>48</v>
+        <v>447</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>50</v>
+        <v>613</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>51</v>
+        <v>937</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>52</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>742</v>
+      <c r="H58" s="8" t="s">
+        <v>731</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>516</v>
+        <v>49</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>595</v>
+        <v>502</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>743</v>
+        <v>503</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>597</v>
+        <v>504</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>217</v>
+        <v>588</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>218</v>
+        <v>589</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>220</v>
+        <v>590</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>221</v>
+        <v>591</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>222</v>
+        <v>592</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>754</v>
+        <v>210</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>168</v>
+      <c r="D65" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>733</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>169</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="68" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>617</v>
+        <v>522</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="69" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="H70" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>192</v>
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>192</v>
+    <row r="72" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="E74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J72" s="4" t="s">
+      <c r="H74" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>192</v>
+      <c r="K74" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>192</v>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>741</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="H77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>81</v>
+        <v>750</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>84</v>
+      <c r="D79" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>753</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>85</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="H80" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="83" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>28</v>
+        <v>555</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>1034</v>
+        <v>556</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>66</v>
+        <v>557</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>776</v>
+        <v>558</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>68</v>
+        <v>560</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>1034</v>
+        <v>63</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>1011</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>439</v>
+        <v>64</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>1051</v>
+        <v>65</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>758</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>582</v>
+        <v>426</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>583</v>
+        <v>427</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>584</v>
+        <v>428</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>779</v>
+        <v>428</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>759</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>1052</v>
+        <v>1082</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>586</v>
+        <v>429</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>1053</v>
+        <v>1083</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>664</v>
+        <v>597</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>1054</v>
+        <v>1084</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>251</v>
+        <v>647</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>252</v>
+        <v>648</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>253</v>
+        <v>1011</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>254</v>
+        <v>649</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>256</v>
+        <v>650</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>1085</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>257</v>
+        <v>651</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>388</v>
+        <v>248</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>1055</v>
+        <v>764</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>389</v>
+        <v>251</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>781</v>
+        <v>378</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>765</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>1056</v>
+        <v>1086</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>28</v>
+        <v>394</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>787</v>
+        <v>247</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>1087</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="H92" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="94" spans="1:11" ht="105" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="105" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>792</v>
+        <v>73</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>790</v>
+        <v>606</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>791</v>
+        <v>609</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>27</v>
+        <v>771</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>774</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>801</v>
+        <v>109</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>772</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>996</v>
+        <v>110</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>26</v>
       </c>
@@ -22554,34 +23193,31 @@
         <v>27</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>997</v>
+        <v>783</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
@@ -22589,34 +23225,34 @@
         <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>809</v>
+        <v>126</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>784</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
@@ -22624,104 +23260,104 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>796</v>
+    <row r="101" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>1000</v>
+        <v>195</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K101" s="12" t="s">
-        <v>996</v>
+        <v>198</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>974</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>27</v>
+    <row r="102" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>1001</v>
+        <v>222</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>978</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>996</v>
+        <v>223</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>974</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -22729,34 +23365,34 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>805</v>
+        <v>321</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -22764,34 +23400,34 @@
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>808</v>
+        <v>331</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>787</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="192" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
@@ -22799,34 +23435,34 @@
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>804</v>
+        <v>336</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>790</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="192" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
@@ -22834,34 +23470,34 @@
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>810</v>
+        <v>412</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>786</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>26</v>
       </c>
@@ -22869,34 +23505,34 @@
         <v>27</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>502</v>
+        <v>420</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>503</v>
+        <v>421</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>803</v>
+        <v>422</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>26</v>
       </c>
@@ -22904,34 +23540,34 @@
         <v>27</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>643</v>
+        <v>489</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>644</v>
+        <v>490</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>645</v>
+        <v>491</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>724</v>
+        <v>492</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>647</v>
+        <v>493</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>26</v>
       </c>
@@ -22939,1138 +23575,1138 @@
         <v>27</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>806</v>
+        <v>706</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>304</v>
+        <v>637</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>305</v>
+        <v>638</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>307</v>
+        <v>639</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>986</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>966</v>
+        <v>641</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>308</v>
+        <v>947</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>946</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>28</v>
+        <v>343</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>968</v>
+        <v>345</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="K112" s="12" t="s">
-        <v>813</v>
+        <v>947</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>815</v>
+        <v>71</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>948</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>74</v>
+        <v>947</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>578</v>
+        <v>169</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>579</v>
+        <v>170</v>
       </c>
       <c r="E114" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>678</v>
+        <v>564</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>679</v>
+        <v>565</v>
       </c>
       <c r="E115" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="K115" s="12" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>317</v>
+        <v>662</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>318</v>
+        <v>663</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>1035</v>
+        <v>70</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>320</v>
+        <v>664</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>322</v>
+        <v>665</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>336</v>
+        <v>799</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>426</v>
+        <v>324</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>530</v>
+        <v>414</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>531</v>
+        <v>415</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>821</v>
+        <v>416</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>798</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>534</v>
+        <v>418</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C120" s="13" t="s">
-        <v>820</v>
+      <c r="C120" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>819</v>
+        <v>517</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>87</v>
+        <v>593</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>88</v>
+        <v>1012</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K121" s="12" t="s">
-        <v>822</v>
+        <v>594</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H122" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="K122" s="12" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>823</v>
+        <v>93</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F124" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>827</v>
+        <v>226</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>805</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>90</v>
+        <v>227</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E125" s="4" t="s">
+      <c r="F125" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>831</v>
+        <v>84</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>28</v>
+        <v>485</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>829</v>
+        <v>486</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K128" s="12" t="s">
-        <v>830</v>
+        <v>488</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>27</v>
+        <v>813</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>833</v>
+      <c r="D129" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>811</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>509</v>
+        <v>28</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>814</v>
       </c>
       <c r="E130" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="I130" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>886</v>
+        <v>496</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="E131" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="I131" s="21" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="132" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>836</v>
+        <v>89</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>840</v>
+        <v>684</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>1089</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K132" s="12" t="s">
-        <v>838</v>
+        <v>689</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>837</v>
+    <row r="133" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>474</v>
+        <v>370</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>821</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>843</v>
+    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>819</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>841</v>
+        <v>463</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>817</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>845</v>
+        <v>219</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>823</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>849</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>1059</v>
+        <v>254</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>827</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>99</v>
+        <v>285</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>830</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>850</v>
+        <v>828</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>1090</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K138" s="20" t="s">
-        <v>853</v>
+        <v>98</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>1032</v>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>837</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>860</v>
+        <v>99</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>836</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K139" s="12" t="s">
-        <v>861</v>
+        <v>100</v>
+      </c>
+      <c r="K139" s="20" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>575</v>
+        <v>150</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>576</v>
+        <v>151</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>859</v>
+        <v>997</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>844</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>577</v>
+        <v>152</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>1024</v>
+        <v>1009</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>1028</v>
+        <v>997</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>840</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>1031</v>
+        <v>841</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>1021</v>
+        <v>839</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C143" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K143" s="12" t="s">
-        <v>1021</v>
+      <c r="D144" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K144" s="12" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>1018</v>
+        <v>553</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>863</v>
+        <v>851</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>1055</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="K145" s="12" t="s">
-        <v>1019</v>
+        <v>554</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>27</v>
+        <v>846</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>774</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>28</v>
+        <v>619</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>1009</v>
+        <v>620</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>1010</v>
+        <v>621</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="13" t="s">
-        <v>1039</v>
+      <c r="C147" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>1040</v>
+        <v>32</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>987</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>277</v>
+      <c r="C148" s="13" t="s">
+        <v>1015</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>1011</v>
+        <v>200</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>1016</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24081,34 +24717,34 @@
         <v>27</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>878</v>
+        <v>272</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>865</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>34</v>
       </c>
@@ -24116,34 +24752,34 @@
         <v>27</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="I150" s="21" t="s">
-        <v>1041</v>
+        <v>348</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>990</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>34</v>
       </c>
@@ -24151,31 +24787,31 @@
         <v>27</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>875</v>
+        <v>350</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>876</v>
+        <v>353</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>855</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24185,32 +24821,32 @@
       <c r="B152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>442</v>
+      <c r="C152" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>857</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>877</v>
+        <v>424</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>858</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24220,32 +24856,32 @@
       <c r="B153" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>463</v>
+      <c r="C153" s="13" t="s">
+        <v>1013</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>1060</v>
+        <v>1014</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24256,28 +24892,31 @@
         <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>879</v>
+      <c r="F154" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>863</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24288,31 +24927,28 @@
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>630</v>
+        <v>470</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>631</v>
+        <v>471</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>884</v>
+      <c r="F155" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>861</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>633</v>
+        <v>472</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24323,318 +24959,385 @@
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>658</v>
+        <v>615</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>659</v>
+        <v>616</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>660</v>
+        <v>617</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>1063</v>
+        <v>1093</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>245</v>
+        <v>642</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>246</v>
+        <v>643</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>247</v>
+        <v>36</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>248</v>
+        <v>645</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1064</v>
+        <v>1094</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>249</v>
+        <v>646</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>890</v>
+        <v>242</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>873</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>1065</v>
+        <v>1095</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>1014</v>
+        <v>362</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>1096</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="I160" s="21" t="s">
-        <v>1066</v>
+        <v>436</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>992</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="195" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>702</v>
+        <v>457</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>703</v>
+        <v>458</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>892</v>
+        <v>460</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>870</v>
       </c>
       <c r="I161" s="21" t="s">
-        <v>1058</v>
+        <v>1097</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>705</v>
+        <v>461</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>893</v>
+      <c r="A162" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>28</v>
+        <v>684</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H162" s="8" t="s">
-        <v>894</v>
+        <v>685</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I162" s="21" t="s">
+        <v>1089</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K162" s="12" t="s">
-        <v>895</v>
+        <v>687</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>991</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>899</v>
+      <c r="D163" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>896</v>
+      <c r="A164" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>878</v>
+      </c>
       <c r="C165" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>1015</v>
+        <v>28</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K165" s="12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C166" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>993</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:J165">
-    <sortCondition descending="1" ref="A155"/>
+  <sortState ref="A2:J166">
+    <sortCondition descending="1" ref="A156"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I74" r:id="rId1" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
-    <hyperlink ref="I15" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
-    <hyperlink ref="K138" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
-    <hyperlink ref="I68" r:id="rId4" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
-    <hyperlink ref="I152" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
-    <hyperlink ref="I147" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
-    <hyperlink ref="I150" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
-    <hyperlink ref="I151" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
-    <hyperlink ref="I80" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
-    <hyperlink ref="I65" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
-    <hyperlink ref="I69" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
-    <hyperlink ref="I157" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
-    <hyperlink ref="I70" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
-    <hyperlink ref="I158" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
-    <hyperlink ref="I89" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
-    <hyperlink ref="I90" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
-    <hyperlink ref="I84" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
-    <hyperlink ref="I160" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
-    <hyperlink ref="I154" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
-    <hyperlink ref="I130" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
-    <hyperlink ref="I71" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
-    <hyperlink ref="I85" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
-    <hyperlink ref="I86" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
-    <hyperlink ref="I155" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
-    <hyperlink ref="I87" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
-    <hyperlink ref="I72" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
-    <hyperlink ref="I73" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
-    <hyperlink ref="I131" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
-    <hyperlink ref="I161" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
-    <hyperlink ref="I156" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
-    <hyperlink ref="I153" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
-    <hyperlink ref="K39" r:id="rId32" xr:uid="{75AEBA56-F842-4258-ABB6-1DD78D236C23}"/>
-    <hyperlink ref="I39" r:id="rId33" xr:uid="{4E525297-9BB1-48CF-B788-B6AC53A48A80}"/>
+    <hyperlink ref="I75" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
+    <hyperlink ref="K139" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
+    <hyperlink ref="I69" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
+    <hyperlink ref="I153" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
+    <hyperlink ref="I148" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
+    <hyperlink ref="I151" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
+    <hyperlink ref="I152" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
+    <hyperlink ref="I81" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
+    <hyperlink ref="I66" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
+    <hyperlink ref="I70" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
+    <hyperlink ref="I158" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
+    <hyperlink ref="I71" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
+    <hyperlink ref="I159" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
+    <hyperlink ref="I90" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
+    <hyperlink ref="I91" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
+    <hyperlink ref="I85" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
+    <hyperlink ref="I161" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
+    <hyperlink ref="I155" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
+    <hyperlink ref="I131" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
+    <hyperlink ref="I72" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
+    <hyperlink ref="I86" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
+    <hyperlink ref="I87" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
+    <hyperlink ref="I156" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
+    <hyperlink ref="I88" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
+    <hyperlink ref="I73" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
+    <hyperlink ref="I74" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
+    <hyperlink ref="I132" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
+    <hyperlink ref="I162" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
+    <hyperlink ref="I157" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
+    <hyperlink ref="I154" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
+    <hyperlink ref="K40" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{75AEBA56-F842-4258-ABB6-1DD78D236C23}"/>
+    <hyperlink ref="I40" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg" xr:uid="{4E525297-9BB1-48CF-B788-B6AC53A48A80}"/>
+    <hyperlink ref="I41" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg" xr:uid="{4C76E2F1-9897-4EC6-9F4A-D0B48B40F2FA}"/>
+    <hyperlink ref="J28" r:id="rId35" xr:uid="{28EBC010-F0C2-469F-9CB1-FD009DFA99CD}"/>
+    <hyperlink ref="J13" r:id="rId36" xr:uid="{E842E51E-5187-4AFF-B737-17C22C9E5938}"/>
+    <hyperlink ref="J27" r:id="rId37" xr:uid="{59972A0E-F491-46DE-BEE4-323F39E630D5}"/>
+    <hyperlink ref="J7" r:id="rId38" xr:uid="{A149FC91-1C07-4A3D-82BC-5D315FCE52E3}"/>
+    <hyperlink ref="J21" r:id="rId39" xr:uid="{16466EC4-4980-436F-9102-A8E25A56BAE9}"/>
+    <hyperlink ref="J19" r:id="rId40" xr:uid="{F3C6306F-C200-4837-BAD0-8DD0188C88F3}"/>
+    <hyperlink ref="J16" r:id="rId41" xr:uid="{95FAFEA9-E5E9-419D-B4CC-C7E0B2109F42}"/>
+    <hyperlink ref="J10" r:id="rId42" xr:uid="{FDABA5B0-B27B-464F-9B3E-C77297320132}"/>
+    <hyperlink ref="J24" r:id="rId43" xr:uid="{DE44D938-BAAB-4A3C-99BB-30A84E79E0E3}"/>
+    <hyperlink ref="J20" r:id="rId44" xr:uid="{A47B0D12-6F1D-49E9-BBC7-5EA61152334C}"/>
+    <hyperlink ref="J9" r:id="rId45" xr:uid="{36A4AC1F-4B11-440D-83F3-EC9B1ACA0342}"/>
+    <hyperlink ref="J12" r:id="rId46" xr:uid="{36C7E751-CEE5-4B19-AE5F-CC9223AF3D9E}"/>
+    <hyperlink ref="J11" r:id="rId47" xr:uid="{EED131E5-293E-40EA-B068-39CA88A3D9E9}"/>
+    <hyperlink ref="J22" r:id="rId48" xr:uid="{DC91F805-9EFB-4D57-8C66-AA5D5537D725}"/>
+    <hyperlink ref="J14" r:id="rId49" xr:uid="{D2275677-5292-4B04-8384-5ADDFDE00F4B}"/>
+    <hyperlink ref="J4" r:id="rId50" xr:uid="{0323236C-A5C3-41BC-A6A6-3A4C12A75F7F}"/>
+    <hyperlink ref="J25" r:id="rId51" xr:uid="{4C9E1B38-6488-4FF6-BD36-46164BB82DBB}"/>
+    <hyperlink ref="J18" r:id="rId52" xr:uid="{7BEBF5F9-25BE-4AB6-BCB3-54E5873100FA}"/>
+    <hyperlink ref="J15" r:id="rId53" xr:uid="{5CBBE6E2-5398-4AD8-B800-23A518CF0314}"/>
+    <hyperlink ref="J6" r:id="rId54" xr:uid="{C0C2BCC8-67D5-425B-89D0-426A4099AD35}"/>
+    <hyperlink ref="J17" r:id="rId55" xr:uid="{7DFE6117-FD80-4A29-A21B-99E559E39E7D}"/>
+    <hyperlink ref="J8" r:id="rId56" xr:uid="{CE24542D-CB5E-4E2A-BE24-B97A3BB8336E}"/>
+    <hyperlink ref="J3" r:id="rId57" xr:uid="{B4150DA5-4678-4B1E-8206-4A0C93D9D423}"/>
+    <hyperlink ref="J5" r:id="rId58" xr:uid="{5D14CA03-C81C-43C0-9222-E635BF361C0F}"/>
+    <hyperlink ref="I5" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png" xr:uid="{9E49B3DB-7037-4236-938E-FC287029C5FF}"/>
+    <hyperlink ref="J23" r:id="rId60" xr:uid="{FD8FF45E-FEFD-41C2-8C3C-2D208FE46343}"/>
+    <hyperlink ref="I44" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg" xr:uid="{BC52596E-D871-49DC-96D3-EC07A8375650}"/>
+    <hyperlink ref="I31" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg" xr:uid="{0FC3D81F-D02C-4E07-8F8E-9C3B2590F166}"/>
+    <hyperlink ref="I35" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg" xr:uid="{D867649C-D196-45E3-AE43-91D9320FA9FE}"/>
+    <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg" xr:uid="{BB44A1BC-56CA-48CE-ADCD-C2AA28A36A27}"/>
+    <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{3244862C-509C-4CC7-B12E-B37D9237060C}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B9673-7B36-4538-BD72-3B777F4E1600}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D5F58-99BA-4FD4-B688-31189C063CA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1071">
   <si>
     <t>date</t>
   </si>
@@ -1377,30 +1377,6 @@
     <t>善仁，蚂蚁金服技术专家，专注于通用搜索场景，熟悉搜索类产品架构设计，负责蚂蚁金服通用搜索产品的设计，研发及维护工作，具有丰富的通用搜索解决方案实践经验。</t>
   </si>
   <si>
-    <t>2018-03-31</t>
-  </si>
-  <si>
-    <t>邵海杨</t>
-  </si>
-  <si>
-    <t>第三代又拍云数据中心架构改造</t>
-  </si>
-  <si>
-    <t>浙江省杭州市西湖区黄姑山路 29 号颐高创业大厦 4 楼楼友会咖啡厅</t>
-  </si>
-  <si>
-    <t>又拍云运维总监</t>
-  </si>
-  <si>
-    <t>资深系统运维架构师。来自杭州 Linux 用户组。业余撰稿人，QCon 讲师及出品人，致力于开源软件及前沿科技的研究和探索。</t>
-  </si>
-  <si>
-    <t>http://musee20160425.b0.upaiyun.com/fileimage/ot40haiyang.jpg</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/article/534</t>
-  </si>
-  <si>
     <t>宋兵强</t>
   </si>
   <si>
@@ -1438,21 +1414,6 @@
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/96</t>
-  </si>
-  <si>
-    <t>唐文俊</t>
-  </si>
-  <si>
-    <t>智能运维与海量日志分析</t>
-  </si>
-  <si>
-    <t>日志易技术总监</t>
-  </si>
-  <si>
-    <t>先后在互联网、电商、信息安全等领域深耕多年，从事IT安全运维、日志分析等方面工作，项目实战经验丰富，拥有Redhat 、Cisco、Vmware、 EMC、Splunk、ITIL等等诸多专家认证资质，对智能运维、信息安全、大数据分析等领域有独到见解。</t>
-  </si>
-  <si>
-    <t>http://musee20160425.b0.upaiyun.com/fileimage/ot40tang.jpg</t>
   </si>
   <si>
     <t>唐锡男</t>
@@ -1796,21 +1757,6 @@
     <t>https://elasticsearch.cn/slides/109</t>
   </si>
   <si>
-    <t>宣云辉</t>
-  </si>
-  <si>
-    <t>二维火的自动化运维探索</t>
-  </si>
-  <si>
-    <t>二维火运维总监</t>
-  </si>
-  <si>
-    <t>花名七喜，二维火运维总监，Redhat 认证架构师，专注于运维新技术实践和中国传统文化在运维工作中的探索。</t>
-  </si>
-  <si>
-    <t>http://musee20160425.b0.upaiyun.com/fileimage/ot40qixi.jpg</t>
-  </si>
-  <si>
     <t>杨孔仕</t>
   </si>
   <si>
@@ -1875,21 +1821,6 @@
   </si>
   <si>
     <t>https://elasticsearch.cn/slides/26</t>
-  </si>
-  <si>
-    <t>姚建兵</t>
-  </si>
-  <si>
-    <t>华数互联网 CDN 架构应用及运维实践</t>
-  </si>
-  <si>
-    <t>华数传媒 P8 解决方案专家、高级项目经理</t>
-  </si>
-  <si>
-    <t>华数传媒互联网技术专家，高级项目经理，致力于 OTT 后台架构的研究，新产品、新方案的探索和实施，解决日常运营、运维中遇到的重大问题并给出改造的解决方案。</t>
-  </si>
-  <si>
-    <t>http://musee20160425.b0.upaiyun.com/fileimage/ot40yao.jpg</t>
   </si>
   <si>
     <t>于炳哲</t>
@@ -17918,98 +17849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://elasticsearch.cn/article/534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又拍云在经历了由小变大的过程中，数据中心也由简单变复杂，伴随着传统运维向自动化运维的转型，以此来更好地迎接未来的挑战，拥抱智能运维的到来。本次分享，将会介绍又拍云如何打造一个集松耦合，弹性可扩容，无状态微服务，可用资源池化的新一代数据中心架构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大数据分析正在被广泛应用，大数据里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> 90% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>都是非结构化数据。日志是重要的非结构化数据，日志无处不在，所以能够从日志里面挖掘的价值非常高，可用于运维监控、安全审计、用户以及业务数据分析。那么，如何最大限度发挥日志的价值成为业内人士研究思考最多的问题之一。本次分享将为大家分享当前海量日志分析的相关应用场景、技术难点以及趋势发展等。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次分享主要介绍二维火在多地容灾，海外数据中心建设中对自动化运维的探索和实践。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>华数传媒在互联网电视、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> OTT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行业深耕，积累了丰富的经验。本次分享首先会介绍华数传媒的后台架构及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> CDN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>架构，结合统一调度、统一云存储、统一编排库等如何智能化解决问题，并大幅降低运维的工作量，介绍一些日常遇到的问题及解决方案。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王刚（ Galen），目前任职 Elastic 中国区总经理，从事IT行业22年，曾就职国内外大型IT企业例如 Lenovo，vo，Salesforce.com, SA, SAP, 甲骨文等；曾任 曾任 salesforce.com 中国区 中国区销售总监，SAP 销售总监，甲骨文ERP总经理等职位；对管理软件（ERP/HCM/CRM）领域，云计算领域（SaaS/ PaaS/IaaS）有着多年的经验和深度理解。王刚先生拥有中国石油大学学历和中国人民大学 MBA 学历。</t>
   </si>
   <si>
@@ -19464,6 +19303,10 @@
   </si>
   <si>
     <t>/static/images/speakers/sj.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ys.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19974,10 +19817,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A57" sqref="A54:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20033,37 +19876,37 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20089,16 +19932,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>1042</v>
+        <v>1014</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -20124,16 +19967,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>1035</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20144,31 +19987,31 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1043</v>
+        <v>1015</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1044</v>
+        <v>1016</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1045</v>
+        <v>1017</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1046</v>
+        <v>1018</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20194,13 +20037,13 @@
         <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20226,21 +20069,21 @@
         <v>114</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>954</v>
+        <v>926</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -20261,16 +20104,16 @@
         <v>118</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>955</v>
+        <v>927</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20296,16 +20139,16 @@
         <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>956</v>
+        <v>928</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20316,7 +20159,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>140</v>
@@ -20331,16 +20174,16 @@
         <v>142</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>957</v>
+        <v>929</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20351,7 +20194,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>166</v>
@@ -20366,16 +20209,16 @@
         <v>168</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20386,7 +20229,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>188</v>
@@ -20401,16 +20244,16 @@
         <v>190</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>959</v>
+        <v>931</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20421,7 +20264,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>191</v>
@@ -20436,16 +20279,16 @@
         <v>193</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>1021</v>
+        <v>993</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20456,7 +20299,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>202</v>
@@ -20471,16 +20314,16 @@
         <v>204</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>961</v>
+        <v>933</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20491,7 +20334,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>233</v>
@@ -20506,16 +20349,16 @@
         <v>234</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>962</v>
+        <v>934</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20526,7 +20369,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>235</v>
@@ -20541,16 +20384,16 @@
         <v>237</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
@@ -20561,7 +20404,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>287</v>
@@ -20576,16 +20419,16 @@
         <v>289</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1040</v>
+        <v>1012</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="249" x14ac:dyDescent="0.3">
@@ -20596,7 +20439,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>290</v>
@@ -20611,16 +20454,16 @@
         <v>292</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
@@ -20631,7 +20474,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>304</v>
@@ -20646,16 +20489,16 @@
         <v>306</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>965</v>
+        <v>937</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>1025</v>
+        <v>997</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20666,7 +20509,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>357</v>
@@ -20681,16 +20524,16 @@
         <v>359</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
@@ -20701,7 +20544,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>391</v>
@@ -20716,16 +20559,16 @@
         <v>393</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>1024</v>
+        <v>996</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20736,7 +20579,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>438</v>
@@ -20751,16 +20594,16 @@
         <v>440</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20771,7 +20614,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>441</v>
@@ -20786,16 +20629,16 @@
         <v>443</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
@@ -20806,31 +20649,31 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20841,31 +20684,31 @@
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
@@ -20876,31 +20719,31 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>924</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>963</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
@@ -20911,63 +20754,63 @@
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>1022</v>
+        <v>994</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>973</v>
-      </c>
       <c r="J28" s="21" t="s">
-        <v>1020</v>
+        <v>992</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20978,7 +20821,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>136</v>
@@ -20990,7 +20833,7 @@
         <v>138</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -21001,16 +20844,16 @@
         <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>139</v>
@@ -21024,28 +20867,28 @@
         <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>139</v>
@@ -21059,22 +20902,22 @@
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>139</v>
@@ -21088,10 +20931,10 @@
         <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>137</v>
@@ -21111,16 +20954,16 @@
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>139</v>
@@ -21149,16 +20992,16 @@
         <v>261</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>262</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
@@ -21184,16 +21027,16 @@
         <v>277</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>278</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
@@ -21204,31 +21047,31 @@
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21239,31 +21082,31 @@
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
@@ -21274,31 +21117,31 @@
         <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -21324,13 +21167,13 @@
         <v>148</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>149</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21356,16 +21199,16 @@
         <v>177</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>178</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
@@ -21391,16 +21234,16 @@
         <v>368</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1063</v>
+        <v>1035</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>369</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
@@ -21426,16 +21269,16 @@
         <v>389</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1064</v>
+        <v>1036</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>390</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21446,10 +21289,10 @@
         <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>146</v>
@@ -21461,16 +21304,16 @@
         <v>177</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>178</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -21481,31 +21324,31 @@
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21516,31 +21359,31 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -21557,7 +21400,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>41</v>
@@ -21566,16 +21409,16 @@
         <v>42</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -21592,7 +21435,7 @@
         <v>206</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>207</v>
@@ -21601,16 +21444,16 @@
         <v>208</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>209</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21627,7 +21470,7 @@
         <v>315</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>316</v>
@@ -21636,13 +21479,13 @@
         <v>317</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21653,31 +21496,31 @@
         <v>39</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21688,28 +21531,28 @@
         <v>79</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
@@ -21720,39 +21563,39 @@
         <v>39</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>28</v>
@@ -21761,534 +21604,546 @@
         <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>446</v>
+        <v>28</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>707</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>448</v>
+        <v>47</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>933</v>
+        <v>48</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>933</v>
+        <v>490</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>936</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>587</v>
+        <v>568</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>614</v>
+        <v>703</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>730</v>
+        <v>211</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>501</v>
+        <v>229</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>502</v>
+        <v>230</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>724</v>
+        <v>231</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>704</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>504</v>
+        <v>232</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>578</v>
+        <v>300</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>579</v>
+        <v>301</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>580</v>
+        <v>138</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>581</v>
+        <v>302</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>582</v>
+        <v>303</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>45</v>
+        <v>713</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>592</v>
+        <v>28</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>710</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>50</v>
+        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>728</v>
+        <v>717</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>1045</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>727</v>
+        <v>266</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>300</v>
+        <v>508</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>301</v>
+        <v>509</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>138</v>
+        <v>510</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>729</v>
+        <v>715</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>303</v>
+        <v>513</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>736</v>
+        <v>158</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>733</v>
+        <v>583</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>734</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>740</v>
+        <v>185</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>722</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>267</v>
+        <v>341</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>1048</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>525</v>
+        <v>534</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>1049</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>739</v>
+        <v>637</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>723</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>179</v>
       </c>
@@ -22296,432 +22151,429 @@
         <v>180</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>181</v>
+        <v>650</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>182</v>
+        <v>651</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>183</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>184</v>
+        <v>652</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>745</v>
+        <v>653</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>724</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>186</v>
+        <v>654</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>1076</v>
+        <v>60</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>1052</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>187</v>
+        <v>134</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>725</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>544</v>
+        <v>28</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>545</v>
+        <v>53</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>1077</v>
+        <v>54</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>718</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>187</v>
+        <v>55</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>719</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>657</v>
+        <v>28</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>658</v>
+        <v>59</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>1078</v>
+        <v>54</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>187</v>
+        <v>61</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>719</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>673</v>
+        <v>350</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>674</v>
+        <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>1079</v>
+        <v>54</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>677</v>
+        <v>356</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>58</v>
+        <v>727</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>949</v>
+        <v>28</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>726</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>748</v>
+        <v>729</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>742</v>
+        <v>82</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>1053</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>742</v>
+        <v>157</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>750</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>753</v>
+        <v>542</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>751</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>755</v>
+        <v>63</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>81</v>
+        <v>983</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>754</v>
+        <v>428</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>736</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>157</v>
+        <v>429</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>380</v>
+        <v>555</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>381</v>
+        <v>556</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>81</v>
+        <v>983</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>382</v>
+        <v>557</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>384</v>
+        <v>558</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>1055</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>81</v>
+        <v>983</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>559</v>
+        <v>581</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>1056</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
@@ -22729,270 +22581,261 @@
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>28</v>
+        <v>624</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>1011</v>
+        <v>625</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>983</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>64</v>
+        <v>626</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>65</v>
+        <v>627</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>758</v>
+        <v>739</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>1057</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>66</v>
+        <v>628</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>426</v>
+        <v>245</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1011</v>
+        <v>247</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>428</v>
+        <v>248</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>428</v>
+        <v>249</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="I85" s="21" t="s">
-        <v>1082</v>
+        <v>741</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>429</v>
+        <v>251</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>569</v>
+        <v>377</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1011</v>
+        <v>247</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>761</v>
+        <v>378</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>742</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>572</v>
+        <v>379</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>596</v>
+        <v>394</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>597</v>
+        <v>395</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1011</v>
+        <v>247</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>598</v>
+        <v>396</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>599</v>
+        <v>397</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>600</v>
+        <v>398</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>647</v>
+        <v>28</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>648</v>
+        <v>74</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>1085</v>
+        <v>75</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>746</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>651</v>
+        <v>76</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>764</v>
+        <v>281</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>744</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>1086</v>
+        <v>405</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="I91" s="21" t="s">
-        <v>1087</v>
+        <v>745</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23003,221 +22846,233 @@
         <v>45</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>28</v>
+        <v>587</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>74</v>
+        <v>588</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="F92" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="H92" s="6" t="s">
-        <v>769</v>
+        <v>743</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>45</v>
+        <v>748</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>282</v>
+        <v>109</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>749</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>403</v>
+        <v>28</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>404</v>
+        <v>29</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>405</v>
+        <v>31</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H94" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H97" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>77</v>
+      <c r="I97" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>946</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="105" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>77</v>
+    <row r="98" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>946</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
@@ -23225,34 +23080,34 @@
         <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>784</v>
+        <v>321</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
@@ -23260,34 +23115,34 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>328</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>791</v>
+        <v>331</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>26</v>
       </c>
@@ -23295,69 +23150,69 @@
         <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>793</v>
+        <v>336</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>767</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>778</v>
+    <row r="102" spans="1:11" ht="192" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>978</v>
+        <v>410</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>974</v>
+        <v>413</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>946</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -23365,34 +23220,34 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>789</v>
+        <v>422</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>769</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -23400,34 +23255,34 @@
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>328</v>
+        <v>476</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>330</v>
+        <v>478</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>787</v>
+        <v>479</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>762</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
@@ -23435,34 +23290,34 @@
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>333</v>
+        <v>605</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>334</v>
+        <v>606</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>335</v>
+        <v>607</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>790</v>
+        <v>608</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>683</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>337</v>
+        <v>609</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="192" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
@@ -23470,342 +23325,339 @@
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>409</v>
+        <v>614</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>410</v>
+        <v>615</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>411</v>
+        <v>616</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>412</v>
+        <v>617</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>413</v>
+        <v>618</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>419</v>
+        <v>295</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>983</v>
+        <v>298</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>974</v>
+        <v>919</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>918</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>489</v>
+        <v>343</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>984</v>
+        <v>345</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>493</v>
+        <v>919</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>974</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>628</v>
+        <v>28</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>629</v>
+        <v>69</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>985</v>
+        <v>71</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>920</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>974</v>
+        <v>919</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>637</v>
+        <v>169</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>638</v>
+        <v>170</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="J110" s="4" t="s">
+      <c r="E112" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>345</v>
+      <c r="H112" s="8" t="s">
+        <v>771</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>299</v>
+        <v>642</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>948</v>
+        <v>310</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="K113" s="12" t="s">
-        <v>795</v>
+        <v>312</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>171</v>
+        <v>324</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>797</v>
+        <v>777</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>564</v>
+        <v>409</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>565</v>
+        <v>414</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>566</v>
+        <v>415</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>796</v>
+        <v>775</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>662</v>
+        <v>502</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>663</v>
+        <v>503</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>794</v>
+        <v>504</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="K116" s="12" t="s">
-        <v>795</v>
+        <v>507</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23815,166 +23667,130 @@
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>308</v>
+      <c r="C117" s="13" t="s">
+        <v>779</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>309</v>
+        <v>575</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>311</v>
+        <v>576</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>312</v>
+        <v>577</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>1012</v>
+        <v>86</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>313</v>
+        <v>87</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>417</v>
+        <v>93</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>313</v>
+        <v>94</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>783</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>515</v>
+        <v>224</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>516</v>
+        <v>225</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1012</v>
+        <v>86</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>519</v>
+        <v>226</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>782</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>313</v>
+        <v>227</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>802</v>
+        <v>79</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>593</v>
+        <v>373</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>1012</v>
+        <v>86</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>801</v>
+        <v>374</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>595</v>
+        <v>375</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>84</v>
       </c>
@@ -23982,39 +23798,54 @@
         <v>79</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K122" s="12" t="s">
-        <v>804</v>
+        <v>401</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B123" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C123" s="4" t="s">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>85</v>
+        <v>466</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>787</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>806</v>
+        <v>468</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24025,621 +23856,645 @@
         <v>79</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>224</v>
+        <v>472</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>225</v>
+        <v>473</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>805</v>
+        <v>474</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>784</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K124" s="12" t="s">
-        <v>804</v>
+        <v>475</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>79</v>
+        <v>790</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>809</v>
+        <v>95</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>788</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>400</v>
+        <v>28</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>791</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>808</v>
+        <v>90</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>792</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>402</v>
+        <v>91</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>810</v>
+        <v>844</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>1060</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>486</v>
+        <v>661</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>845</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>807</v>
+        <v>90</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="I128" s="21" t="s">
+        <v>1061</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>488</v>
+        <v>666</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>811</v>
+        <v>370</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>799</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>96</v>
+        <v>371</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>27</v>
+    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>796</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>815</v>
+        <v>454</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>794</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>92</v>
+        <v>456</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>27</v>
+        <v>802</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>498</v>
+        <v>219</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="I131" s="21" t="s">
-        <v>1088</v>
+        <v>800</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>92</v>
+        <v>220</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>27</v>
+        <v>802</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="I132" s="21" t="s">
-        <v>1089</v>
+        <v>253</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>804</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>92</v>
+        <v>255</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>803</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>822</v>
+        <v>808</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>1062</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>819</v>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>462</v>
+        <v>28</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>817</v>
+        <v>97</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>809</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>464</v>
+        <v>98</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>823</v>
+        <v>99</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>813</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K135" s="12" t="s">
-        <v>824</v>
+        <v>100</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>812</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>825</v>
+    <row r="136" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>981</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>827</v>
+        <v>151</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>819</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>825</v>
+    <row r="137" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>981</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>284</v>
+        <v>548</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>1090</v>
+        <v>549</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>815</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>286</v>
+        <v>550</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>97</v>
+      <c r="A138" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>975</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>98</v>
+        <v>978</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>980</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>833</v>
+        <v>970</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="A139" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K139" s="20" t="s">
-        <v>835</v>
+      <c r="D140" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K140" s="12" t="s">
+        <v>970</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>844</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K140" s="12" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>852</v>
+    <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>1009</v>
+        <v>751</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>838</v>
+        <v>540</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>1027</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="K141" s="12" t="s">
-        <v>839</v>
+        <v>541</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>852</v>
+      <c r="A142" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>1008</v>
+        <v>751</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>1004</v>
+      <c r="A143" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K143" s="12" t="s">
-        <v>998</v>
+        <v>833</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>28</v>
+    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>987</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>853</v>
+        <v>199</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>988</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K144" s="12" t="s">
-        <v>998</v>
+        <v>201</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>774</v>
+        <v>34</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>550</v>
+        <v>269</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>850</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>851</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>1055</v>
+        <v>270</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>961</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>554</v>
+        <v>273</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>554</v>
+        <v>960</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>774</v>
+        <v>34</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>619</v>
+        <v>346</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>995</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>845</v>
+        <v>347</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>962</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="K146" s="12" t="s">
-        <v>996</v>
+        <v>349</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -24647,66 +24502,66 @@
         <v>27</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>987</v>
+        <v>353</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>989</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>199</v>
+      <c r="C148" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>834</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>196</v>
+        <v>424</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>854</v>
+        <v>424</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>835</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24716,32 +24571,32 @@
       <c r="B149" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>269</v>
+      <c r="C149" s="13" t="s">
+        <v>985</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>270</v>
+        <v>431</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>989</v>
+        <v>433</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>986</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24752,34 +24607,34 @@
         <v>27</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>347</v>
+        <v>445</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>990</v>
+        <v>840</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>1063</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>34</v>
       </c>
@@ -24787,31 +24642,28 @@
         <v>27</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>350</v>
+        <v>457</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>855</v>
+      <c r="F151" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>838</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>1017</v>
+        <v>1064</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24822,31 +24674,31 @@
         <v>27</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>857</v>
+        <v>592</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>424</v>
+        <v>594</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>858</v>
+        <v>594</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>1018</v>
+        <v>1065</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>425</v>
+        <v>595</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24856,169 +24708,166 @@
       <c r="B153" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="13" t="s">
-        <v>1013</v>
+      <c r="C153" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>431</v>
+        <v>620</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>432</v>
+        <v>621</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>433</v>
+        <v>622</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>1014</v>
+        <v>1066</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>434</v>
+        <v>623</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>452</v>
+        <v>239</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>453</v>
+        <v>240</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>454</v>
+        <v>241</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>456</v>
+        <v>243</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>471</v>
+        <v>361</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>862</v>
+        <v>241</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1092</v>
+        <v>1068</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>472</v>
+        <v>364</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>615</v>
+        <v>430</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>616</v>
+        <v>435</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>617</v>
+        <v>436</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="I156" s="21" t="s">
-        <v>1093</v>
+        <v>848</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>964</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>618</v>
+        <v>437</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="195" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>642</v>
+        <v>449</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>643</v>
+        <v>450</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>644</v>
+        <v>451</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>864</v>
+        <v>452</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>847</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>646</v>
+        <v>453</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -25029,279 +24878,145 @@
         <v>27</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>239</v>
+        <v>661</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>240</v>
+        <v>662</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>242</v>
+        <v>663</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>1095</v>
+        <v>1061</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>243</v>
+        <v>664</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>27</v>
+      <c r="A159" s="6" t="s">
+        <v>852</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="I159" s="21" t="s">
-        <v>1096</v>
+        <v>853</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>991</v>
+        <v>104</v>
+      </c>
+      <c r="K159" s="12" t="s">
+        <v>854</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>27</v>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>856</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>436</v>
+        <v>28</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>992</v>
+        <v>858</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>991</v>
+        <v>105</v>
+      </c>
+      <c r="K160" s="12" t="s">
+        <v>857</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>27</v>
+        <v>855</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I161" s="21" t="s">
-        <v>1097</v>
+        <v>28</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>859</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>991</v>
+        <v>106</v>
+      </c>
+      <c r="K161" s="12" t="s">
+        <v>860</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C162" s="4" t="s">
-        <v>684</v>
+        <v>481</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="I162" s="21" t="s">
-        <v>1089</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H163" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K163" s="12" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K164" s="12" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K165" s="12" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C166" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="F166" s="18" t="s">
-        <v>939</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>993</v>
+        <v>482</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:J166">
-    <sortCondition descending="1" ref="A156"/>
+  <sortState ref="A2:J162">
+    <sortCondition descending="1" ref="A152"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I75" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
+    <hyperlink ref="I71" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
     <hyperlink ref="I16" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
-    <hyperlink ref="K139" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
-    <hyperlink ref="I69" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
-    <hyperlink ref="I153" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
-    <hyperlink ref="I148" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
-    <hyperlink ref="I151" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
-    <hyperlink ref="I152" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
-    <hyperlink ref="I81" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
-    <hyperlink ref="I66" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
-    <hyperlink ref="I70" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
-    <hyperlink ref="I158" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
-    <hyperlink ref="I71" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
-    <hyperlink ref="I159" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
-    <hyperlink ref="I90" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
-    <hyperlink ref="I91" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
-    <hyperlink ref="I85" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
-    <hyperlink ref="I161" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
-    <hyperlink ref="I155" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
-    <hyperlink ref="I131" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
-    <hyperlink ref="I72" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
-    <hyperlink ref="I86" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
-    <hyperlink ref="I87" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
-    <hyperlink ref="I156" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
-    <hyperlink ref="I88" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
-    <hyperlink ref="I73" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
-    <hyperlink ref="I74" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
-    <hyperlink ref="I132" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
-    <hyperlink ref="I162" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
-    <hyperlink ref="I157" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
-    <hyperlink ref="I154" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
+    <hyperlink ref="K135" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
+    <hyperlink ref="I65" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
+    <hyperlink ref="I149" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
+    <hyperlink ref="I144" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
+    <hyperlink ref="I147" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
+    <hyperlink ref="I148" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
+    <hyperlink ref="I77" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
+    <hyperlink ref="I62" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
+    <hyperlink ref="I66" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
+    <hyperlink ref="I154" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
+    <hyperlink ref="I67" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
+    <hyperlink ref="I155" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
+    <hyperlink ref="I86" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
+    <hyperlink ref="I87" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
+    <hyperlink ref="I81" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
+    <hyperlink ref="I157" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
+    <hyperlink ref="I151" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
+    <hyperlink ref="I127" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
+    <hyperlink ref="I68" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
+    <hyperlink ref="I82" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
+    <hyperlink ref="I83" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
+    <hyperlink ref="I152" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
+    <hyperlink ref="I84" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
+    <hyperlink ref="I69" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
+    <hyperlink ref="I70" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
+    <hyperlink ref="I128" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
+    <hyperlink ref="I158" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
+    <hyperlink ref="I153" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
+    <hyperlink ref="I150" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
     <hyperlink ref="K40" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{75AEBA56-F842-4258-ABB6-1DD78D236C23}"/>
     <hyperlink ref="I40" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg" xr:uid="{4E525297-9BB1-48CF-B788-B6AC53A48A80}"/>
     <hyperlink ref="I41" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg" xr:uid="{4C76E2F1-9897-4EC6-9F4A-D0B48B40F2FA}"/>
@@ -25336,8 +25051,9 @@
     <hyperlink ref="I35" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg" xr:uid="{D867649C-D196-45E3-AE43-91D9320FA9FE}"/>
     <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg" xr:uid="{BB44A1BC-56CA-48CE-ADCD-C2AA28A36A27}"/>
     <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{3244862C-509C-4CC7-B12E-B37D9237060C}"/>
+    <hyperlink ref="I26" r:id="rId66" xr:uid="{4923EA7D-F9F4-4172-8528-E6E44C4DEC81}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D5F58-99BA-4FD4-B688-31189C063CA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE24DF-8B7F-4541-8106-6E1D870960EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1072">
   <si>
     <t>date</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>高吞吐状况下斗鱼搜索引擎优化之路</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/15</t>
   </si>
   <si>
     <t>2018-09-22</t>
@@ -18202,1110 +18199,1120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/alvin.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2018/shenzhen/speaker.html</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/andy.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/Michael-Russell.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/monica.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/nicolas.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/clx.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/cjx.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/dyf.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/gct.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ghx.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/hfr.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lcz.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lfl.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lkp.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lb.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/mm.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/rym.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/sr.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/wb.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/wwb.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/zhr.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/jgq.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2016/beijing.html</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/RashidKhan.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/bf.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/gp.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/Scott-Ho.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lx.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lxh.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lzw.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/pyq.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/qqq.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/WilliamWong.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/zjj.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/zll.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/Medcl.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2015/beijing.html</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/jn.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lx.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2014/beijing.html</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/rcl.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/galen.png</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/hu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海市长宁区金钟路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凌空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SOHO 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携程大厦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s://conf.elasticsearch.cn/2015/shanghai.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上海市长宁区金钟路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凌空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SOHO 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携程大厦</t>
+    </r>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/2015/shanghai.html</t>
+  </si>
+  <si>
+    <t>Igor Motov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's new in Elasticsearch 2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logstash, what's cooking?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Igor Motov is a software developer on the Elasticsearch core team based out of the Boston area where he also serves as a co-organizer of the Boston Elasticsearch Meetup Group. Prior to joining Elastic, Igor worked on search solutions for companies ranging from small startups to large corporations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaunak Kashyap has been working as a backend developer in the Internet software industry for over a decade. Some of his more interesting past gigs include building a poker search and analytics engine; a system for tracking and analyzing the jail population in Louisville, Kentucky; and ground software to command and control earth-imaging satellites. Today, Shaunak works as a Developer Advocate at Elastic, the makers of Elasticsearch, Logstash and Kibana.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic software developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elasticsearch 2.0 release is just around the corner. In this talk we will cover new features, breaking changes and migration strategy for the next major release.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have all heard of Logstash, the easy-to-use, pluggable, data ingestion and enrichment framework. In a past edition of ESCC, you were introduced to Logstash, what it is capable of, and how to use it. In this presentation we will take a peek at the future of Logstash. Come hear what the Logstash team is busy cooking up!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1boF8Buf#list/path=%2FESCC%234%2F%E4%B8%8A%E6%B5%B7%E7%AB%99%2FPPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座趋势科技中国研发中心</t>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座 趋势科技中国研发中心（靠花神庙地铁站）</t>
+  </si>
+  <si>
+    <t>雨花台区软件大道48号苏豪国际广场B座</t>
+  </si>
+  <si>
+    <t>饶琛琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/rcl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高攀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/gp.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lbt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/qqq.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/155</t>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/15</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/14</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/13</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joen Van Driel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic VP APJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Joen Van Driel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副总裁，负责管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在亚太区的业务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在技术行业拥有超过二十年的丰富经验，主要专注于销售管理、战略和业务开发等方向。在担任此岗位之前，他曾在甲骨文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (Oracle) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任云应用部门的副总裁，还曽在谷歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (Google) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Google Cloud </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门的国家经理，而且还在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Google Enterprise Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Adobe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Salesforce.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担任过领导职位。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生于韩国，并且在中国香港、新加坡、澳大利亚、爱尔兰、菲律宾和荷兰都生活过。他目前定居荷兰，有两个孩子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Joen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有阿姆斯特丹大学的金融经济学博士学位。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elastic 亚太区副总裁致开场发言，介绍 Elastic 最新进展和趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Elastic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国开发者大会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elastic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最新进展和趋势</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/joen.png</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/shanghai/1001.html</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/beijing/1001.html</t>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/nanjing/1001.html</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/wb.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/kennywu.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/kwl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/wp.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/xty.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/beijing/1001/speakers/zjy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/clh.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/dmy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/lj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/mwj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/hp.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/wxy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1001/speakers/zjj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/medcl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/hbj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/lwq.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/thb.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/city/nanjing/1001/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/cg.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/yzt.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/dx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lbj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/wwj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zhy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/bf.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/cc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/qsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/xsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ywj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zld.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ns.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/why.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zwl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/lhz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sbq.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/txn.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ybz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lg.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sj.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ys.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaunak Kashyap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>北京尚德机构</t>
-  </si>
-  <si>
-    <t>面向谷歌编程的佛系码农。</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/alvin.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/2018/shenzhen/speaker.html</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/andy.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/Michael-Russell.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/monica.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/nicolas.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/clx.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/cjx.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/dyf.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/gct.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ghx.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/hfr.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lcz.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lfl.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lkp.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/lb.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/mm.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/rym.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/sr.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/wb.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/wwb.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/zhr.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/jgq.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/2016/beijing.html</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/RashidKhan.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/bf.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/gp.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/Scott-Ho.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lx.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lxh.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/lzw.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/pyq.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/qqq.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/WilliamWong.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/zjj.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/zll.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/Medcl.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/2015/beijing.html</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/jn.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lx.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/2014/beijing.html</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2014/speakers/rcl.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/galen.png</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/hu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海市长宁区金钟路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>968</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凌空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SOHO 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>携程大厦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>http</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>s://conf.elasticsearch.cn/2015/shanghai.html</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上海市长宁区金钟路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>968</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凌空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SOHO 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>携程大厦</t>
-    </r>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/2015/shanghai.html</t>
-  </si>
-  <si>
-    <t>Igor Motov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shaunak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What's new in Elasticsearch 2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logstash, what's cooking?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Igor Motov is a software developer on the Elasticsearch core team based out of the Boston area where he also serves as a co-organizer of the Boston Elasticsearch Meetup Group. Prior to joining Elastic, Igor worked on search solutions for companies ranging from small startups to large corporations.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shaunak Kashyap has been working as a backend developer in the Internet software industry for over a decade. Some of his more interesting past gigs include building a poker search and analytics engine; a system for tracking and analyzing the jail population in Louisville, Kentucky; and ground software to command and control earth-imaging satellites. Today, Shaunak works as a Developer Advocate at Elastic, the makers of Elasticsearch, Logstash and Kibana.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elastic software developer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Elasticsearch 2.0 release is just around the corner. In this talk we will cover new features, breaking changes and migration strategy for the next major release.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You have all heard of Logstash, the easy-to-use, pluggable, data ingestion and enrichment framework. In a past edition of ESCC, you were introduced to Logstash, what it is capable of, and how to use it. In this presentation we will take a peek at the future of Logstash. Come hear what the Logstash team is busy cooking up!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1boF8Buf#list/path=%2FESCC%234%2F%E4%B8%8A%E6%B5%B7%E7%AB%99%2FPPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨花台区软件大道48号苏豪国际广场B座趋势科技中国研发中心</t>
-  </si>
-  <si>
-    <t>雨花台区软件大道48号苏豪国际广场B座 趋势科技中国研发中心（靠花神庙地铁站）</t>
-  </si>
-  <si>
-    <t>雨花台区软件大道48号苏豪国际广场B座</t>
-  </si>
-  <si>
-    <t>饶琛琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/rcl.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高攀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/gp.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2015/speakers/lbt.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2016/speakers/qqq.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/155</t>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/15</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/148</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/14</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/14</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/14</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/14</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/1</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/1</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://elasticsearch.cn/slides/13</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joen Van Driel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elastic VP APJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Joen Van Driel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Elastic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>副总裁，负责管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Elastic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在亚太区的业务。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Joen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在技术行业拥有超过二十年的丰富经验，主要专注于销售管理、战略和业务开发等方向。在担任此岗位之前，他曾在甲骨文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (Oracle) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>担任云应用部门的副总裁，还曽在谷歌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (Google) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>担任</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Google Cloud </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门的国家经理，而且还在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Google Enterprise Search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Adobe </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Salesforce.com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>担任过领导职位。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Joen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出生于韩国，并且在中国香港、新加坡、澳大利亚、爱尔兰、菲律宾和荷兰都生活过。他目前定居荷兰，有两个孩子。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Joen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有阿姆斯特丹大学的金融经济学博士学位。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elastic 亚太区副总裁致开场发言，介绍 Elastic 最新进展和趋势。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Elastic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国开发者大会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>介绍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Elastic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最新进展和趋势</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/joen.png</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/event/shanghai/1001.html</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/event/beijing/1001.html</t>
-  </si>
-  <si>
-    <t>https://meetup.elasticsearch.cn/event/nanjing/1001.html</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/wb.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/kennywu.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/beijing/1001/speakers/hc.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/beijing/1001/speakers/kwl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/beijing/1001/speakers/wp.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/beijing/1001/speakers/xty.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/beijing/1001/speakers/zjy.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/clh.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/dmy.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/lj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/mwj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/hp.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/wxy.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/shanghai/1001/speakers/zjj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/nanjing/1001/speakers/medcl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/nanjing/1001/speakers/hbj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/nanjing/1001/speakers/lwq.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/nanjing/1001/speakers/thb.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/city/nanjing/1001/speakers/zw.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/cg.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/yzt.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/dx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lbj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/wwj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zhy.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zw.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/bf.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/cc.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/qsx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/xsx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ywj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zld.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ns.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/why.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zwl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/lhz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/sbq.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/txn.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ybz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/hc.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lg.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/sj.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ys.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向谷歌编程的佛系码农。热爱代码，研究源码，研究开源框架，熟悉ElasticSeach，ELK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高吞吐状况下斗鱼搜索引擎优化之路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19474,7 +19481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19509,6 +19516,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19819,8 +19827,8 @@
   </sheetPr>
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A57" sqref="A54:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19831,7 +19839,7 @@
     <col min="4" max="4" width="41.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="78.109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -19876,37 +19884,37 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19932,16 +19940,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19967,16 +19975,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -19987,31 +19995,31 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>1018</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>1022</v>
-      </c>
       <c r="J5" s="21" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20037,13 +20045,13 @@
         <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20069,21 +20077,21 @@
         <v>114</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -20104,16 +20112,16 @@
         <v>118</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20139,16 +20147,16 @@
         <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20159,31 +20167,31 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20194,31 +20202,31 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20229,31 +20237,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20264,31 +20272,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20299,31 +20307,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20334,31 +20342,31 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20369,31 +20377,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
@@ -20404,31 +20412,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="249" x14ac:dyDescent="0.3">
@@ -20439,31 +20447,31 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
@@ -20474,31 +20482,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="H19" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20509,31 +20517,31 @@
         <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
@@ -20544,31 +20552,31 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20579,31 +20587,31 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20614,31 +20622,31 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="H23" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
@@ -20649,31 +20657,31 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -20684,31 +20692,31 @@
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>530</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
@@ -20719,31 +20727,31 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="H26" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
@@ -20754,636 +20762,636 @@
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="H27" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>913</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>917</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>904</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="K30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="K31" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="G32" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>649</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="K34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="K35" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="K36" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>496</v>
-      </c>
       <c r="K37" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="K38" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>659</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="K40" s="20" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="K41" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="K42" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="K43" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="K44" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="K45" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>613</v>
-      </c>
       <c r="K46" s="21" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -21400,7 +21408,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>41</v>
@@ -21409,16 +21417,16 @@
         <v>42</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -21429,31 +21437,31 @@
         <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="K48" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21464,28 +21472,28 @@
         <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="H49" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21496,31 +21504,31 @@
         <v>39</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="K50" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21531,28 +21539,28 @@
         <v>79</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="K51" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
@@ -21563,39 +21571,39 @@
         <v>39</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>647</v>
-      </c>
       <c r="K52" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>697</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>698</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>28</v>
@@ -21604,19 +21612,19 @@
         <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -21630,7 +21638,7 @@
         <v>28</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>46</v>
@@ -21642,7 +21650,7 @@
         <v>48</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>49</v>
@@ -21659,25 +21667,25 @@
         <v>45</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>50</v>
@@ -21691,25 +21699,25 @@
         <v>45</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>50</v>
@@ -21723,25 +21731,25 @@
         <v>45</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>50</v>
@@ -21749,436 +21757,436 @@
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="K59" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="K60" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="J61" s="12" t="s">
+      <c r="K61" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H62" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="K63" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>513</v>
-      </c>
       <c r="K64" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="K65" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C67" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="K67" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C68" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="K68" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C69" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>638</v>
-      </c>
       <c r="K69" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C70" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>654</v>
-      </c>
       <c r="K70" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
@@ -22194,20 +22202,23 @@
       <c r="E71" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>922</v>
+      <c r="F71" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>1071</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>725</v>
+        <v>1048</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22227,13 +22238,13 @@
         <v>54</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -22259,7 +22270,7 @@
         <v>61</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -22270,16 +22281,16 @@
         <v>52</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>56</v>
@@ -22287,22 +22298,22 @@
     </row>
     <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>730</v>
-      </c>
       <c r="K75" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22322,7 +22333,7 @@
         <v>81</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>82</v>
@@ -22339,28 +22350,28 @@
         <v>79</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>83</v>
@@ -22374,28 +22385,28 @@
         <v>79</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>83</v>
@@ -22409,28 +22420,28 @@
         <v>79</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>83</v>
@@ -22450,7 +22461,7 @@
         <v>63</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>64</v>
@@ -22459,7 +22470,7 @@
         <v>65</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>66</v>
@@ -22476,28 +22487,28 @@
         <v>39</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>67</v>
@@ -22511,28 +22522,28 @@
         <v>39</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>67</v>
@@ -22546,28 +22557,28 @@
         <v>39</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>67</v>
@@ -22581,28 +22592,28 @@
         <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>67</v>
@@ -22610,104 +22621,104 @@
     </row>
     <row r="85" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="H86" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="K86" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="I87" s="21" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="K87" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22727,7 +22738,7 @@
         <v>75</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>76</v>
@@ -22744,25 +22755,25 @@
         <v>45</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H89" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>77</v>
@@ -22776,28 +22787,28 @@
         <v>45</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>77</v>
@@ -22811,28 +22822,28 @@
         <v>45</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>77</v>
@@ -22846,25 +22857,25 @@
         <v>45</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="J92" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>77</v>
@@ -22872,10 +22883,10 @@
     </row>
     <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>28</v>
@@ -22885,19 +22896,19 @@
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>753</v>
-      </c>
       <c r="H93" s="15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -22923,13 +22934,13 @@
         <v>32</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -22955,16 +22966,16 @@
         <v>126</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
@@ -22990,16 +23001,16 @@
         <v>131</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
@@ -23010,66 +23021,66 @@
         <v>27</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="K97" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="C98" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="F98" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="K98" s="12" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
@@ -23080,31 +23091,31 @@
         <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="K99" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
@@ -23115,31 +23126,31 @@
         <v>27</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H100" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="K100" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
@@ -23150,31 +23161,31 @@
         <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="J101" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="K101" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="192" x14ac:dyDescent="0.3">
@@ -23185,31 +23196,31 @@
         <v>27</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F102" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="H102" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="K102" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
@@ -23220,31 +23231,31 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="H103" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="H103" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="K103" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23255,31 +23266,31 @@
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="H104" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="H104" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="K104" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
@@ -23290,31 +23301,31 @@
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="H105" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="K105" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
@@ -23325,83 +23336,83 @@
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="H106" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>618</v>
-      </c>
       <c r="K106" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="J107" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="C108" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="J108" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23424,13 +23435,13 @@
         <v>71</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23441,25 +23452,25 @@
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="H110" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>72</v>
@@ -23473,22 +23484,22 @@
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>72</v>
@@ -23502,191 +23513,191 @@
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="K112" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="K112" s="12" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F113" s="4" t="s">
+      <c r="G113" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="J113" s="4" t="s">
+      <c r="K113" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F114" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="H114" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H114" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I114" s="4" t="s">
+      <c r="J114" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="K114" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D115" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F115" s="4" t="s">
+      <c r="G115" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="H115" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="I115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="K115" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F116" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="H116" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="I116" s="4" t="s">
+      <c r="J116" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>507</v>
-      </c>
       <c r="K116" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="H117" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>577</v>
-      </c>
       <c r="K117" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -23709,7 +23720,7 @@
         <v>87</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -23729,7 +23740,7 @@
         <v>94</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23740,25 +23751,25 @@
         <v>79</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F120" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="J120" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="K120" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23769,22 +23780,22 @@
         <v>79</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F121" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="J121" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>88</v>
@@ -23798,22 +23809,22 @@
         <v>79</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F122" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="J122" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>88</v>
@@ -23827,22 +23838,22 @@
         <v>79</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F123" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>88</v>
@@ -23856,22 +23867,22 @@
         <v>79</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="J124" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>88</v>
@@ -23879,7 +23890,7 @@
     </row>
     <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>28</v>
@@ -23888,13 +23899,13 @@
         <v>95</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -23908,13 +23919,13 @@
         <v>28</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>91</v>
@@ -23931,25 +23942,25 @@
         <v>27</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F127" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="I127" s="21" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>92</v>
@@ -23963,25 +23974,25 @@
         <v>27</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="I128" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="I128" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>92</v>
@@ -23989,119 +24000,119 @@
     </row>
     <row r="129" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J129" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F129" s="15" t="s">
-        <v>798</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="K129" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="H130" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="J130" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="H130" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="K130" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="H131" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="K131" s="12" t="s">
         <v>800</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>802</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K132" s="12" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="F133" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J133" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F133" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="H133" s="6" t="s">
+      <c r="K133" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>28</v>
@@ -24110,18 +24121,18 @@
         <v>97</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>28</v>
@@ -24130,146 +24141,146 @@
         <v>99</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>100</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="E136" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E136" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="H136" s="9" t="s">
+      <c r="K136" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K136" s="12" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="E137" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="H137" s="9" t="s">
+      <c r="K137" s="12" t="s">
         <v>815</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="K137" s="12" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>975</v>
-      </c>
       <c r="H138" s="6" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="G139" s="6" t="s">
+      <c r="H139" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="J139" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="H139" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>980</v>
-      </c>
       <c r="K139" s="12" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>28</v>
@@ -24278,80 +24289,80 @@
         <v>101</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>827</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>828</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>541</v>
-      </c>
       <c r="K141" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="F142" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D142" s="4" t="s">
+      <c r="G142" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="J142" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>598</v>
-      </c>
       <c r="K142" s="12" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24377,16 +24388,16 @@
         <v>32</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.3">
@@ -24397,31 +24408,31 @@
         <v>27</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G144" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>984</v>
+      </c>
+      <c r="J144" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H144" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>988</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="K144" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24432,31 +24443,31 @@
         <v>27</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F145" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="H145" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J145" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H145" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="K145" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24467,31 +24478,31 @@
         <v>27</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F146" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="K146" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
@@ -24502,31 +24513,31 @@
         <v>27</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="H147" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>985</v>
+      </c>
+      <c r="J147" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H147" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>989</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="K147" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24537,31 +24548,31 @@
         <v>27</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>986</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="I148" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="K148" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24572,31 +24583,31 @@
         <v>27</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="H149" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="I149" s="21" t="s">
-        <v>986</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="K149" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24607,31 +24618,31 @@
         <v>27</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J150" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="H150" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="I150" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="K150" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24642,28 +24653,28 @@
         <v>27</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24674,31 +24685,31 @@
         <v>27</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="I152" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>595</v>
-      </c>
       <c r="K152" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -24709,202 +24720,202 @@
         <v>27</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="H153" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="H153" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="I153" s="21" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>623</v>
-      </c>
       <c r="K153" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="G154" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G154" s="4" t="s">
+      <c r="H154" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="I154" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J154" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H154" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="I154" s="21" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="K154" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F155" s="4" t="s">
+      <c r="G155" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="H155" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="I155" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H155" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="I155" s="21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="K155" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D156" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F156" s="4" t="s">
+      <c r="H156" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="J156" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H156" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="K156" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="195" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F157" s="4" t="s">
+      <c r="G157" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="H157" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="I157" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="H157" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="I157" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="K157" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="E158" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G158" s="4" t="s">
+      <c r="H158" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="H158" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="I158" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>664</v>
-      </c>
       <c r="K158" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>28</v>
@@ -24913,70 +24924,70 @@
         <v>103</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C162" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>482</v>
-      </c>
       <c r="F162" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -25052,8 +25063,10 @@
     <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg" xr:uid="{BB44A1BC-56CA-48CE-ADCD-C2AA28A36A27}"/>
     <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{3244862C-509C-4CC7-B12E-B37D9237060C}"/>
     <hyperlink ref="I26" r:id="rId66" xr:uid="{4923EA7D-F9F4-4172-8528-E6E44C4DEC81}"/>
+    <hyperlink ref="K71" r:id="rId67" xr:uid="{0F3F427F-DEE8-4F0F-848B-7F62AE75EEF2}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{60857203-D3D9-4553-809A-5124658987DF}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\es\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyang/code/html/meetup-site/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE24DF-8B7F-4541-8106-6E1D870960EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="286"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1580,9 +1587,6 @@
     <t>就职于中国中投证券信息技术部，负责券商周边系统的运维。</t>
   </si>
   <si>
-    <t>https://elasticsearch.cn/uploads/article/20171206/d4c1e34d990c3c60b5af7d832187f964.jpeg</t>
-  </si>
-  <si>
     <t>https://elasticsearch.cn/slides/6</t>
   </si>
   <si>
@@ -3999,7 +4003,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>05</t>
     </r>
@@ -4016,7 +4019,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>27</t>
     </r>
@@ -9993,7 +9995,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>logstash</t>
     </r>
@@ -10012,7 +10013,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>ELK</t>
     </r>
@@ -10031,7 +10031,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10050,7 +10049,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>logstash</t>
     </r>
@@ -10069,7 +10067,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>jruby</t>
     </r>
@@ -10088,7 +10085,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> hangout</t>
     </r>
@@ -10107,7 +10103,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>logsatsh</t>
     </r>
@@ -10126,7 +10121,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>java</t>
     </r>
@@ -10145,7 +10139,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>logstash</t>
     </r>
@@ -10164,7 +10157,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>filter</t>
     </r>
@@ -10183,7 +10175,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10202,7 +10193,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>hangout</t>
     </r>
@@ -10222,7 +10212,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">:
 * </t>
@@ -10242,7 +10231,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">hangout   
 * </t>
@@ -10262,7 +10250,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">filter
 * </t>
@@ -10282,7 +10269,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>logsatsh</t>
     </r>
@@ -10302,7 +10288,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -10322,7 +10307,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">* </t>
     </r>
@@ -10341,7 +10325,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>mesos+marathon</t>
     </r>
@@ -10360,7 +10343,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>hangout</t>
     </r>
@@ -12486,7 +12468,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>800</t>
     </r>
@@ -12505,7 +12486,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>ES</t>
     </r>
@@ -17874,7 +17854,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>18</t>
     </r>
@@ -17891,7 +17870,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -17908,7 +17886,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -18425,7 +18402,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>s://conf.elasticsearch.cn/2015/shanghai.html</t>
     </r>
@@ -18605,7 +18581,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -18637,7 +18612,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -18653,7 +18627,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -18673,7 +18646,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -18693,7 +18665,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -18709,7 +18680,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>39</t>
     </r>
@@ -18725,7 +18695,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>38</t>
     </r>
@@ -18741,7 +18710,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -18757,7 +18725,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -18773,7 +18740,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -18789,7 +18755,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -18805,7 +18770,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -18821,7 +18785,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -18837,7 +18800,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -18853,7 +18815,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -19108,7 +19069,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2018 - </t>
     </r>
@@ -19127,7 +19087,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Elastic </t>
     </r>
@@ -19220,107 +19179,112 @@
     <t>/static/images/speakers/cg.jpg</t>
   </si>
   <si>
+    <t>/static/images/speakers/dx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lbj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/wwj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zhy.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zw.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/bf.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/cc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/qsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/xsx.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ywj.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zld.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ns.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/why.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zwl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/organizer/lhz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sbq.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/txn.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/ybz.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/zl.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/hc.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/lg.jpg</t>
+  </si>
+  <si>
+    <t>/static/images/speakers/sj.jpg</t>
+  </si>
+  <si>
+    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ys.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaunak Kashyap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京尚德机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向谷歌编程的佛系码农。热爱代码，研究源码，研究开源框架，熟悉ElasticSeach，ELK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高吞吐状况下斗鱼搜索引擎优化之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/static/images/organizer/yzt.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/dx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lbj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/wwj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zhy.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zw.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/bf.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/cc.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/qsx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/xsx.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ywj.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zld.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ns.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/why.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zwl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/organizer/lhz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/sbq.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/txn.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/ybz.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/zl.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/hc.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/lg.jpg</t>
-  </si>
-  <si>
-    <t>/static/images/speakers/sj.jpg</t>
-  </si>
-  <si>
-    <t>https://conf.elasticsearch.cn/static/images/2018/speakers/ys.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shaunak Kashyap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京尚德机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向谷歌编程的佛系码农。热爱代码，研究源码，研究开源框架，熟悉ElasticSeach，ELK。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://elasticsearch.cn/slides/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高吞吐状况下斗鱼搜索引擎优化之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/speakers/wjh.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19452,13 +19416,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -19481,7 +19438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19517,13 +19474,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -19821,40 +19785,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="78.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="42.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="52.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="4"/>
+    <col min="12" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -19882,49 +19846,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -19940,26 +19904,26 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>921</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -19975,61 +19939,61 @@
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1011</v>
+      <c r="C5" s="26" t="s">
+        <v>1010</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>1015</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -20045,23 +20009,23 @@
         <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -20077,26 +20041,26 @@
         <v>114</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="25" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -20112,26 +20076,26 @@
         <v>118</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -20147,27 +20111,27 @@
         <v>122</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>868</v>
+      <c r="C10" s="27" t="s">
+        <v>867</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>139</v>
@@ -20182,27 +20146,27 @@
         <v>141</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>869</v>
+      <c r="C11" s="27" t="s">
+        <v>868</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>165</v>
@@ -20217,27 +20181,27 @@
         <v>167</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>871</v>
+      <c r="C12" s="27" t="s">
+        <v>870</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>187</v>
@@ -20252,27 +20216,27 @@
         <v>189</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>873</v>
+      <c r="C13" s="27" t="s">
+        <v>872</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>190</v>
@@ -20287,27 +20251,27 @@
         <v>192</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>875</v>
+      <c r="C14" s="27" t="s">
+        <v>874</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>201</v>
@@ -20322,27 +20286,27 @@
         <v>203</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>877</v>
+      <c r="C15" s="27" t="s">
+        <v>876</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>232</v>
@@ -20357,27 +20321,27 @@
         <v>233</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>879</v>
+      <c r="C16" s="27" t="s">
+        <v>878</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>234</v>
@@ -20392,27 +20356,27 @@
         <v>236</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>881</v>
+      <c r="C17" s="27" t="s">
+        <v>880</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>286</v>
@@ -20427,27 +20391,27 @@
         <v>288</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="249" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="231" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>883</v>
+      <c r="C18" s="27" t="s">
+        <v>882</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>289</v>
@@ -20462,27 +20426,27 @@
         <v>291</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>885</v>
+      <c r="C19" s="27" t="s">
+        <v>884</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>303</v>
@@ -20497,27 +20461,27 @@
         <v>305</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>887</v>
+      <c r="C20" s="27" t="s">
+        <v>886</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>356</v>
@@ -20532,27 +20496,27 @@
         <v>358</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>889</v>
+      <c r="C21" s="27" t="s">
+        <v>888</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>390</v>
@@ -20567,27 +20531,27 @@
         <v>392</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>891</v>
+      <c r="C22" s="27" t="s">
+        <v>890</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>437</v>
@@ -20602,27 +20566,27 @@
         <v>439</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>893</v>
+      <c r="C23" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>440</v>
@@ -20637,199 +20601,199 @@
         <v>442</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="233" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>895</v>
+      <c r="C24" s="27" t="s">
+        <v>894</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>516</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>897</v>
+      <c r="C25" s="27" t="s">
+        <v>896</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="248" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>899</v>
+      <c r="C26" s="27" t="s">
+        <v>898</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="H26" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="147" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>901</v>
+      <c r="C27" s="27" t="s">
+        <v>900</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="H27" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I27" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>989</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>921</v>
+      <c r="J28" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>920</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>988</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>903</v>
+      <c r="C29" s="27" t="s">
+        <v>902</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>135</v>
@@ -20841,17 +20805,17 @@
         <v>137</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="25" t="s">
         <v>468</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -20867,82 +20831,82 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="171" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>136</v>
@@ -20954,37 +20918,37 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>659</v>
+      <c r="C34" s="25" t="s">
+        <v>658</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="207" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="193" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="25" t="s">
         <v>256</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -21000,26 +20964,26 @@
         <v>260</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>261</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="25" t="s">
         <v>273</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -21035,26 +20999,26 @@
         <v>276</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>277</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="97" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="25" t="s">
         <v>491</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -21070,96 +21034,96 @@
         <v>494</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>495</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>258</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="K38" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>258</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>658</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="25" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -21175,23 +21139,23 @@
         <v>147</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>148</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="25" t="s">
         <v>173</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -21207,26 +21171,26 @@
         <v>176</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>177</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="225" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="25" t="s">
         <v>364</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -21242,26 +21206,26 @@
         <v>367</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>368</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="117" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="25" t="s">
         <v>385</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -21277,30 +21241,30 @@
         <v>388</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>389</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="25" t="s">
         <v>486</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>145</v>
@@ -21312,26 +21276,26 @@
         <v>176</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>177</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="25" t="s">
         <v>496</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -21347,68 +21311,68 @@
         <v>499</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>500</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>604</v>
+      <c r="C46" s="25" t="s">
+        <v>603</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="K46" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="130" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>41</v>
@@ -21417,33 +21381,33 @@
         <v>42</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="25" t="s">
         <v>204</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>206</v>
@@ -21452,33 +21416,33 @@
         <v>207</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>208</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="25" t="s">
         <v>313</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>314</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>315</v>
@@ -21487,30 +21451,30 @@
         <v>316</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="25" t="s">
         <v>459</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>461</v>
@@ -21519,126 +21483,126 @@
         <v>462</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>463</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>632</v>
-      </c>
       <c r="K51" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="118" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>646</v>
-      </c>
       <c r="K52" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>46</v>
@@ -21650,7 +21614,7 @@
         <v>48</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>49</v>
@@ -21659,14 +21623,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="25" t="s">
         <v>486</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -21682,7 +21646,7 @@
         <v>489</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>490</v>
@@ -21691,78 +21655,78 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="25" t="s">
         <v>210</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -21778,7 +21742,7 @@
         <v>214</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>215</v>
@@ -21787,14 +21751,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -21810,7 +21774,7 @@
         <v>230</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>231</v>
@@ -21819,14 +21783,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="25" t="s">
         <v>299</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -21842,7 +21806,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>302</v>
@@ -21851,34 +21815,34 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="J61" s="12" t="s">
+      <c r="K61" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>710</v>
-      </c>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="25" t="s">
         <v>158</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -21894,10 +21858,10 @@
         <v>162</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>163</v>
@@ -21906,14 +21870,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="25" t="s">
         <v>262</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -21929,7 +21893,7 @@
         <v>265</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>266</v>
@@ -21941,14 +21905,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="25" t="s">
         <v>507</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -21964,61 +21928,61 @@
         <v>510</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="116" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="132" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="25" t="s">
         <v>180</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -22034,10 +21998,10 @@
         <v>184</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>185</v>
@@ -22046,14 +22010,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="25" t="s">
         <v>337</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -22069,10 +22033,10 @@
         <v>340</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>341</v>
@@ -22081,119 +22045,119 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="103" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -22203,32 +22167,32 @@
         <v>60</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J71" s="21" t="s">
         <v>1068</v>
       </c>
-      <c r="G71" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>1070</v>
-      </c>
       <c r="K71" s="20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -22238,23 +22202,23 @@
         <v>54</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -22270,17 +22234,17 @@
         <v>61</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="25" t="s">
         <v>349</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -22296,34 +22260,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>727</v>
-      </c>
     </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -22333,7 +22297,7 @@
         <v>81</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>82</v>
@@ -22342,14 +22306,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="25" t="s">
         <v>152</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -22365,10 +22329,10 @@
         <v>155</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>156</v>
@@ -22377,14 +22341,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="25" t="s">
         <v>379</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -22400,7 +22364,7 @@
         <v>382</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>383</v>
@@ -22412,56 +22376,56 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="133" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>64</v>
@@ -22470,7 +22434,7 @@
         <v>65</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>66</v>
@@ -22479,21 +22443,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="104" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="25" t="s">
         <v>425</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>426</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>427</v>
@@ -22502,10 +22466,10 @@
         <v>427</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>428</v>
@@ -22514,119 +22478,119 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="174" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="74" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="118" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="25" t="s">
         <v>244</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -22642,7 +22606,7 @@
         <v>248</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>249</v>
@@ -22654,14 +22618,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="271" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="25" t="s">
         <v>375</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -22674,10 +22638,10 @@
         <v>377</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>378</v>
@@ -22686,14 +22650,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="89" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="25" t="s">
         <v>393</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -22709,10 +22673,10 @@
         <v>396</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>397</v>
@@ -22721,14 +22685,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -22738,7 +22702,7 @@
         <v>75</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>76</v>
@@ -22747,14 +22711,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="25" t="s">
         <v>278</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -22767,7 +22731,7 @@
         <v>280</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>281</v>
@@ -22779,14 +22743,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="25" t="s">
         <v>402</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -22802,7 +22766,7 @@
         <v>405</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>406</v>
@@ -22814,81 +22778,81 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="104" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>513</v>
+      <c r="C91" s="25" t="s">
+        <v>512</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="J92" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C93" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -22896,29 +22860,29 @@
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>752</v>
-      </c>
       <c r="H93" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -22934,23 +22898,23 @@
         <v>32</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="25" t="s">
         <v>123</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -22966,26 +22930,26 @@
         <v>126</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>127</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="321" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="25" t="s">
         <v>128</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -23001,26 +22965,26 @@
         <v>131</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -23036,61 +23000,61 @@
         <v>196</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>197</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="89" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="25" t="s">
         <v>220</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E98" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="I98" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>222</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="25" t="s">
         <v>317</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -23106,26 +23070,26 @@
         <v>320</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>321</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="169" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="25" t="s">
         <v>327</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -23141,26 +23105,26 @@
         <v>330</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>331</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="25" t="s">
         <v>332</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -23176,26 +23140,26 @@
         <v>335</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>336</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="192" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="175" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="25" t="s">
         <v>408</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -23211,26 +23175,26 @@
         <v>411</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>412</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="163" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="25" t="s">
         <v>418</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -23246,26 +23210,26 @@
         <v>421</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>422</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -23281,96 +23245,96 @@
         <v>478</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>479</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="103" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="H105" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>608</v>
-      </c>
       <c r="K105" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="374" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="H106" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>617</v>
-      </c>
       <c r="K106" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="25" t="s">
         <v>294</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -23383,20 +23347,20 @@
         <v>297</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="25" t="s">
         <v>342</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -23409,20 +23373,20 @@
         <v>344</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -23435,23 +23399,23 @@
         <v>71</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="25" t="s">
         <v>168</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -23467,7 +23431,7 @@
         <v>171</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>172</v>
@@ -23476,79 +23440,79 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="K112" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="K112" s="12" t="s">
-        <v>771</v>
-      </c>
     </row>
-    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="25" t="s">
         <v>307</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>309</v>
@@ -23557,7 +23521,7 @@
         <v>310</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>311</v>
@@ -23566,21 +23530,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="25" t="s">
         <v>317</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>322</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>323</v>
@@ -23589,7 +23553,7 @@
         <v>324</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>325</v>
@@ -23601,21 +23565,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="25" t="s">
         <v>408</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>414</v>
@@ -23624,7 +23588,7 @@
         <v>415</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>416</v>
@@ -23636,21 +23600,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="25" t="s">
         <v>501</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>502</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>503</v>
@@ -23659,7 +23623,7 @@
         <v>504</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>505</v>
@@ -23671,43 +23635,43 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>778</v>
+      <c r="C117" s="27" t="s">
+        <v>777</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="H117" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -23720,14 +23684,14 @@
         <v>87</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -23740,17 +23704,17 @@
         <v>94</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -23763,23 +23727,23 @@
         <v>225</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>226</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="25" t="s">
         <v>371</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -23792,7 +23756,7 @@
         <v>373</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>374</v>
@@ -23801,14 +23765,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="25" t="s">
         <v>398</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -23821,7 +23785,7 @@
         <v>400</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>401</v>
@@ -23830,14 +23794,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="25" t="s">
         <v>464</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -23850,7 +23814,7 @@
         <v>466</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>467</v>
@@ -23859,14 +23823,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -23879,7 +23843,7 @@
         <v>473</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>474</v>
@@ -23888,44 +23852,44 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C125" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>96</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>91</v>
@@ -23934,14 +23898,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="25" t="s">
         <v>482</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -23954,10 +23918,10 @@
         <v>484</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>485</v>
@@ -23966,413 +23930,413 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>660</v>
+      <c r="C128" s="25" t="s">
+        <v>659</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="I128" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="I128" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="298" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="C129" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>364</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>369</v>
       </c>
       <c r="F129" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>798</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>370</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C130" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C130" s="25" t="s">
         <v>453</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>454</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>455</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C131" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>217</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>218</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>219</v>
       </c>
       <c r="K131" s="12" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="25" t="s">
         <v>252</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>253</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>254</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C133" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C133" s="25" t="s">
         <v>283</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>284</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>285</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C134" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C134" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="C135" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>100</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="C136" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C136" s="25" t="s">
         <v>149</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J136" s="4" t="s">
         <v>151</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="89" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="C137" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="E137" s="13" t="s">
+      <c r="K137" s="12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>967</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="K137" s="12" t="s">
-        <v>815</v>
-      </c>
     </row>
-    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="D138" s="6" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="E139" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="K139" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="J138" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="K138" s="12" t="s">
-        <v>967</v>
-      </c>
     </row>
-    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>966</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="K139" s="12" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C140" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C140" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="368" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="F142" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>827</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>540</v>
+      <c r="G142" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="K142" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>823</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="K142" s="12" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -24388,27 +24352,27 @@
         <v>32</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="13" t="s">
-        <v>983</v>
+      <c r="C144" s="27" t="s">
+        <v>982</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>198</v>
@@ -24423,26 +24387,26 @@
         <v>199</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>200</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="25" t="s">
         <v>268</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -24458,26 +24422,26 @@
         <v>271</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>272</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="25" t="s">
         <v>345</v>
       </c>
       <c r="D146" s="4" t="s">
@@ -24493,26 +24457,26 @@
         <v>347</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>348</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="25" t="s">
         <v>349</v>
       </c>
       <c r="D147" s="4" t="s">
@@ -24528,30 +24492,30 @@
         <v>352</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I147" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>353</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="25" t="s">
         <v>418</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
@@ -24563,27 +24527,27 @@
         <v>423</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>424</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>981</v>
+      <c r="C149" s="27" t="s">
+        <v>980</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>430</v>
@@ -24598,26 +24562,26 @@
         <v>432</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>433</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="25" t="s">
         <v>443</v>
       </c>
       <c r="D150" s="4" t="s">
@@ -24633,26 +24597,26 @@
         <v>446</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I150" s="21" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>447</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="25" t="s">
         <v>456</v>
       </c>
       <c r="D151" s="4" t="s">
@@ -24662,99 +24626,99 @@
         <v>36</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>458</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="I152" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="K152" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="H153" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="H153" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="I153" s="21" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>622</v>
-      </c>
       <c r="K153" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="25" t="s">
         <v>238</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -24767,26 +24731,26 @@
         <v>241</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>242</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="25" t="s">
         <v>359</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -24802,26 +24766,26 @@
         <v>362</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>363</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="25" t="s">
         <v>429</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -24834,26 +24798,26 @@
         <v>435</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>436</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="180" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="25" t="s">
         <v>448</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -24869,125 +24833,125 @@
         <v>451</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>452</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G158" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="H158" s="6" t="s">
+      <c r="K158" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="I158" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="C160" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C160" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="C161" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C161" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C162" s="4" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C162" s="25" t="s">
         <v>480</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>481</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -24997,74 +24961,74 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I71" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg" xr:uid="{60EBE7B0-5441-4809-9EE4-A594EE0EFC57}"/>
-    <hyperlink ref="I16" r:id="rId2" xr:uid="{42912CDD-AF96-4A9D-AE6C-89B46EA24E16}"/>
-    <hyperlink ref="K135" r:id="rId3" xr:uid="{CD1DB12B-C429-4D24-8C02-D8D98E456B99}"/>
-    <hyperlink ref="I65" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg" xr:uid="{30C6F04E-E66A-46F8-845F-85DA7826FD5A}"/>
-    <hyperlink ref="I149" r:id="rId5" xr:uid="{80676FA1-2FAC-495A-AA18-6F43E8398FA8}"/>
-    <hyperlink ref="I144" r:id="rId6" xr:uid="{2826EBA5-8ECA-4D20-A604-E739C24C2249}"/>
-    <hyperlink ref="I147" r:id="rId7" xr:uid="{969ED3A5-CF7B-48D3-96A8-C8B592FC7072}"/>
-    <hyperlink ref="I148" r:id="rId8" xr:uid="{172923D7-AC1F-43CE-9800-9D1429A84679}"/>
-    <hyperlink ref="I77" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{3F6A45BA-1A4A-493E-A461-53581C82D36C}"/>
-    <hyperlink ref="I62" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{761F7A6E-FE21-48C6-B0C0-3A54021265CD}"/>
-    <hyperlink ref="I66" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{F7FAF7AB-C639-4190-9D07-40ED36717AFC}"/>
-    <hyperlink ref="I154" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{2E62672D-E279-4B85-8683-41C499F99DB4}"/>
-    <hyperlink ref="I67" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{CB0B8624-6760-4801-BB24-F3E7D6EE67B0}"/>
-    <hyperlink ref="I155" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{E662FF03-FBBC-4D57-968A-A8DCD3D14EB1}"/>
-    <hyperlink ref="I86" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{3577763C-6701-4003-A6C0-DFACA9DBAA1C}"/>
-    <hyperlink ref="I87" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{CC0F9249-34ED-4325-B5D5-2F8343270534}"/>
-    <hyperlink ref="I81" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{C8E72AD8-4675-4BEC-921A-1923A9C42F09}"/>
-    <hyperlink ref="I157" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{4986D7B2-6412-47ED-B99D-91784239B35E}"/>
-    <hyperlink ref="I151" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{152CB849-2A35-4355-8553-FFA16343BC91}"/>
-    <hyperlink ref="I127" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{C988B54C-66C1-4D8E-B508-FE563D729CBA}"/>
-    <hyperlink ref="I68" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{777770FF-F65B-4351-B23D-C9BA848D90D2}"/>
-    <hyperlink ref="I82" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{1F6C86C7-5D67-41CE-9849-0FED49F89E71}"/>
-    <hyperlink ref="I83" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{C6B3CB35-BC32-4524-99CB-B220C097E26C}"/>
-    <hyperlink ref="I152" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{4C4BD30D-6905-4A4D-98F3-7EF9B3E45CFD}"/>
-    <hyperlink ref="I84" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{6FCEA85D-F94E-44AF-831B-B8932CBA54A5}"/>
-    <hyperlink ref="I69" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{19643EAD-19F0-48F0-917A-EBD067ADB3EF}"/>
-    <hyperlink ref="I70" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{9C04E56F-3BD4-45AD-951D-2DEDF439AE80}"/>
-    <hyperlink ref="I128" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{F0BB260A-26B8-4B6A-9A59-CC24D316C357}"/>
-    <hyperlink ref="I158" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{2F18778C-9293-493B-85C3-6D99686B0924}"/>
-    <hyperlink ref="I153" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{4BFC6C3B-FC23-440B-9306-E18C2AD1E1A1}"/>
-    <hyperlink ref="I150" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{AD84148E-B26B-4B26-AC50-173645C9F0E0}"/>
-    <hyperlink ref="K40" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{75AEBA56-F842-4258-ABB6-1DD78D236C23}"/>
-    <hyperlink ref="I40" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg" xr:uid="{4E525297-9BB1-48CF-B788-B6AC53A48A80}"/>
-    <hyperlink ref="I41" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg" xr:uid="{4C76E2F1-9897-4EC6-9F4A-D0B48B40F2FA}"/>
-    <hyperlink ref="J28" r:id="rId35" xr:uid="{28EBC010-F0C2-469F-9CB1-FD009DFA99CD}"/>
-    <hyperlink ref="J13" r:id="rId36" xr:uid="{E842E51E-5187-4AFF-B737-17C22C9E5938}"/>
-    <hyperlink ref="J27" r:id="rId37" xr:uid="{59972A0E-F491-46DE-BEE4-323F39E630D5}"/>
-    <hyperlink ref="J7" r:id="rId38" xr:uid="{A149FC91-1C07-4A3D-82BC-5D315FCE52E3}"/>
-    <hyperlink ref="J21" r:id="rId39" xr:uid="{16466EC4-4980-436F-9102-A8E25A56BAE9}"/>
-    <hyperlink ref="J19" r:id="rId40" xr:uid="{F3C6306F-C200-4837-BAD0-8DD0188C88F3}"/>
-    <hyperlink ref="J16" r:id="rId41" xr:uid="{95FAFEA9-E5E9-419D-B4CC-C7E0B2109F42}"/>
-    <hyperlink ref="J10" r:id="rId42" xr:uid="{FDABA5B0-B27B-464F-9B3E-C77297320132}"/>
-    <hyperlink ref="J24" r:id="rId43" xr:uid="{DE44D938-BAAB-4A3C-99BB-30A84E79E0E3}"/>
-    <hyperlink ref="J20" r:id="rId44" xr:uid="{A47B0D12-6F1D-49E9-BBC7-5EA61152334C}"/>
-    <hyperlink ref="J9" r:id="rId45" xr:uid="{36A4AC1F-4B11-440D-83F3-EC9B1ACA0342}"/>
-    <hyperlink ref="J12" r:id="rId46" xr:uid="{36C7E751-CEE5-4B19-AE5F-CC9223AF3D9E}"/>
-    <hyperlink ref="J11" r:id="rId47" xr:uid="{EED131E5-293E-40EA-B068-39CA88A3D9E9}"/>
-    <hyperlink ref="J22" r:id="rId48" xr:uid="{DC91F805-9EFB-4D57-8C66-AA5D5537D725}"/>
-    <hyperlink ref="J14" r:id="rId49" xr:uid="{D2275677-5292-4B04-8384-5ADDFDE00F4B}"/>
-    <hyperlink ref="J4" r:id="rId50" xr:uid="{0323236C-A5C3-41BC-A6A6-3A4C12A75F7F}"/>
-    <hyperlink ref="J25" r:id="rId51" xr:uid="{4C9E1B38-6488-4FF6-BD36-46164BB82DBB}"/>
-    <hyperlink ref="J18" r:id="rId52" xr:uid="{7BEBF5F9-25BE-4AB6-BCB3-54E5873100FA}"/>
-    <hyperlink ref="J15" r:id="rId53" xr:uid="{5CBBE6E2-5398-4AD8-B800-23A518CF0314}"/>
-    <hyperlink ref="J6" r:id="rId54" xr:uid="{C0C2BCC8-67D5-425B-89D0-426A4099AD35}"/>
-    <hyperlink ref="J17" r:id="rId55" xr:uid="{7DFE6117-FD80-4A29-A21B-99E559E39E7D}"/>
-    <hyperlink ref="J8" r:id="rId56" xr:uid="{CE24542D-CB5E-4E2A-BE24-B97A3BB8336E}"/>
-    <hyperlink ref="J3" r:id="rId57" xr:uid="{B4150DA5-4678-4B1E-8206-4A0C93D9D423}"/>
-    <hyperlink ref="J5" r:id="rId58" xr:uid="{5D14CA03-C81C-43C0-9222-E635BF361C0F}"/>
-    <hyperlink ref="I5" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png" xr:uid="{9E49B3DB-7037-4236-938E-FC287029C5FF}"/>
-    <hyperlink ref="J23" r:id="rId60" xr:uid="{FD8FF45E-FEFD-41C2-8C3C-2D208FE46343}"/>
-    <hyperlink ref="I44" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg" xr:uid="{BC52596E-D871-49DC-96D3-EC07A8375650}"/>
-    <hyperlink ref="I31" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg" xr:uid="{0FC3D81F-D02C-4E07-8F8E-9C3B2590F166}"/>
-    <hyperlink ref="I35" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg" xr:uid="{D867649C-D196-45E3-AE43-91D9320FA9FE}"/>
-    <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg" xr:uid="{BB44A1BC-56CA-48CE-ADCD-C2AA28A36A27}"/>
-    <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{3244862C-509C-4CC7-B12E-B37D9237060C}"/>
-    <hyperlink ref="I26" r:id="rId66" xr:uid="{4923EA7D-F9F4-4172-8528-E6E44C4DEC81}"/>
-    <hyperlink ref="K71" r:id="rId67" xr:uid="{0F3F427F-DEE8-4F0F-848B-7F62AE75EEF2}"/>
-    <hyperlink ref="J71" r:id="rId68" xr:uid="{60857203-D3D9-4553-809A-5124658987DF}"/>
+    <hyperlink ref="I71" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="K135" r:id="rId3"/>
+    <hyperlink ref="I65" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg"/>
+    <hyperlink ref="I149" r:id="rId5"/>
+    <hyperlink ref="I144" r:id="rId6"/>
+    <hyperlink ref="I147" r:id="rId7"/>
+    <hyperlink ref="I148" r:id="rId8"/>
+    <hyperlink ref="I77" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg"/>
+    <hyperlink ref="I62" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg"/>
+    <hyperlink ref="I66" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg"/>
+    <hyperlink ref="I154" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg"/>
+    <hyperlink ref="I67" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg"/>
+    <hyperlink ref="I155" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg"/>
+    <hyperlink ref="I86" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg"/>
+    <hyperlink ref="I87" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg"/>
+    <hyperlink ref="I81" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg"/>
+    <hyperlink ref="I157" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg"/>
+    <hyperlink ref="I151" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg"/>
+    <hyperlink ref="I127" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg"/>
+    <hyperlink ref="I68" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg"/>
+    <hyperlink ref="I82" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg"/>
+    <hyperlink ref="I83" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg"/>
+    <hyperlink ref="I152" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg"/>
+    <hyperlink ref="I84" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg"/>
+    <hyperlink ref="I69" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg"/>
+    <hyperlink ref="I70" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg"/>
+    <hyperlink ref="I128" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
+    <hyperlink ref="I158" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
+    <hyperlink ref="I153" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg"/>
+    <hyperlink ref="I150" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg"/>
+    <hyperlink ref="K40" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
+    <hyperlink ref="I40" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg"/>
+    <hyperlink ref="I41" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg"/>
+    <hyperlink ref="J28" r:id="rId35"/>
+    <hyperlink ref="J13" r:id="rId36"/>
+    <hyperlink ref="J27" r:id="rId37"/>
+    <hyperlink ref="J7" r:id="rId38"/>
+    <hyperlink ref="J21" r:id="rId39"/>
+    <hyperlink ref="J19" r:id="rId40"/>
+    <hyperlink ref="J16" r:id="rId41"/>
+    <hyperlink ref="J10" r:id="rId42"/>
+    <hyperlink ref="J24" r:id="rId43"/>
+    <hyperlink ref="J20" r:id="rId44"/>
+    <hyperlink ref="J9" r:id="rId45"/>
+    <hyperlink ref="J12" r:id="rId46"/>
+    <hyperlink ref="J11" r:id="rId47"/>
+    <hyperlink ref="J22" r:id="rId48"/>
+    <hyperlink ref="J14" r:id="rId49"/>
+    <hyperlink ref="J4" r:id="rId50"/>
+    <hyperlink ref="J25" r:id="rId51"/>
+    <hyperlink ref="J18" r:id="rId52"/>
+    <hyperlink ref="J15" r:id="rId53"/>
+    <hyperlink ref="J6" r:id="rId54"/>
+    <hyperlink ref="J17" r:id="rId55"/>
+    <hyperlink ref="J8" r:id="rId56"/>
+    <hyperlink ref="J3" r:id="rId57"/>
+    <hyperlink ref="J5" r:id="rId58"/>
+    <hyperlink ref="I5" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png"/>
+    <hyperlink ref="J23" r:id="rId60"/>
+    <hyperlink ref="I44" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg"/>
+    <hyperlink ref="I31" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg"/>
+    <hyperlink ref="I35" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg"/>
+    <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg"/>
+    <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
+    <hyperlink ref="I26" r:id="rId66"/>
+    <hyperlink ref="K71" r:id="rId67"/>
+    <hyperlink ref="J71" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>

--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1105">
   <si>
     <t>date</t>
   </si>
@@ -19277,6 +19277,144 @@
   </si>
   <si>
     <t>/static/images/speakers/wjh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金澜涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES在eBay大数据计算资源管理平台中的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBay大数据工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前就职于eBay大数据基础架构组，拥有6年大数据平台架构方向工作经验。在加入eBay之前，先后在阿里巴巴系统平台和大众点评的大数据部门工作。主要从事Hadoop，Spark开发，优化和运维，是Hadoop，Spark，Hive等开源社区贡献者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBay大数据计算平台承载着整个eBay的离线计算任务，提供松散和自由的数据使用方式，同时也在作业和资源的管理上增加了挑战。eBay大数据基础架构组为了解决出现的一系列问题，开发了一套workload管理系统，对运行在集群上的各种作业进行统一的分析和管理，其中ElasticSearch作为该系统背后的存储和查询服务，提高了系统的效率和可用性。本次分享主要对该计算资源管理平台进行介绍，以及我们在ES使用上的一些问题和经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/shanghai/1002.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1002/speakers/jlt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刘帅 (Ricky Lau) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES性能优化在同程艺龙的实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程艺龙搜索工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲述了在同程艺龙我们是如何使用Elasticsearch来解决业务在信息检索上的需求， 以及如何应对业务数据增量带来的横向扩展问题，对于高并发、高吞吐的场景如何解决性能问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索工程师、60+ ES集群负责人， 有着丰富的信息检索和分布式搜索架构经验， 专注于海量数据的存储与实时分析。 阿里云Elasticsearch MVP，目前就职于同程艺龙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丁子夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程资深工程师</t>
+    <rPh sb="0" eb="1">
+      <t>xie cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责携程国际化App搜索，内容信息部门搜索框架和相关业务搜索等内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斌龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责腾讯云Elasticsearch后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于ES的搜索快速开发框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES在云上APM中的应用实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程的内容信息研发部门已经有20+应用接入Elasticsearch，保持了高可用性和快速的开发速度。基于此沉淀了架构设计、索引备份、数据同步等要点和快速开发框架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要介绍基于腾讯云服务打造的APM应用性能监控平台中ES的应用实践，内容包含ES如何与其它云产品结合从而发挥出最大价值，以及如何利用函数计算减轻ES的运维负担。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/organizer/ls.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1002/speakers/dzy.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/shanghai/1002/speakers/gbl.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区虹翔三路东航城 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区虹翔三路东航城 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19438,7 +19576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19481,6 +19619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19789,10 +19928,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19883,139 +20022,142 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>1081</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>1074</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>13</v>
+        <v>1090</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>1094</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>1103</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>1091</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>860</v>
+        <v>1092</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>1096</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>919</v>
+        <v>1099</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>1009</v>
+        <v>1102</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>920</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>1081</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>1074</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>18</v>
+        <v>1087</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>1104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>1088</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>861</v>
+        <v>1089</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1095</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>921</v>
+        <v>1098</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>920</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>1081</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1015</v>
+        <v>1074</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1083</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>1017</v>
+        <v>1104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>1097</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>1014</v>
+        <v>1100</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>920</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>1081</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>1074</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>22</v>
+        <v>1072</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>1073</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>1104</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>1075</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>862</v>
+        <v>1076</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>1080</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>1006</v>
+        <v>1078</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>920</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -20026,65 +20168,65 @@
         <v>12</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="K7" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>859</v>
+      <c r="A8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>923</v>
+        <v>861</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>921</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K8" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20095,31 +20237,31 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>120</v>
+      <c r="C9" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1015</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>924</v>
+      <c r="F9" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>1017</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>997</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20130,31 +20272,28 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>867</v>
+      <c r="C10" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>925</v>
+        <v>862</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>994</v>
-      </c>
-      <c r="K10" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20165,66 +20304,66 @@
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>868</v>
+      <c r="C11" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>869</v>
+        <v>114</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>863</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="K11" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
+      <c r="A12" s="6" t="s">
+        <v>859</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>870</v>
+      <c r="C12" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>927</v>
+        <v>118</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>923</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>998</v>
-      </c>
-      <c r="K12" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20235,31 +20374,31 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>872</v>
+      <c r="C13" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>988</v>
-      </c>
-      <c r="K13" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20271,30 +20410,30 @@
         <v>12</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>875</v>
+        <v>141</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K14" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>920</v>
       </c>
     </row>
@@ -20306,28 +20445,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>920</v>
@@ -20341,34 +20480,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>962</v>
+        <v>871</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>927</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -20376,34 +20515,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>881</v>
+        <v>192</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>873</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="231" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -20411,34 +20550,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>883</v>
+        <v>203</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>875</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -20446,28 +20585,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>885</v>
+        <v>233</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>877</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>920</v>
@@ -20481,34 +20620,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>934</v>
+        <v>879</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>962</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -20516,34 +20655,34 @@
         <v>12</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>889</v>
+        <v>288</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="231" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -20551,34 +20690,34 @@
         <v>12</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>891</v>
+        <v>291</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>883</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -20586,34 +20725,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>893</v>
+        <v>305</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="233" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -20621,34 +20760,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>513</v>
+        <v>356</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>514</v>
+        <v>357</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>895</v>
+        <v>358</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>887</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="58" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -20656,34 +20795,34 @@
         <v>12</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>897</v>
+        <v>392</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="248" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -20691,34 +20830,34 @@
         <v>12</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>597</v>
+        <v>437</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>986</v>
+        <v>439</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>1000</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="147" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -20726,60 +20865,63 @@
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>601</v>
+        <v>441</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>901</v>
+        <v>442</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>893</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>913</v>
+    <row r="28" spans="1:11" ht="233" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>911</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>941</v>
+        <v>513</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>938</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>920</v>
@@ -20787,112 +20929,139 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>135</v>
+        <v>526</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>903</v>
+        <v>527</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>920</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="248" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>468</v>
+        <v>12</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>898</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>470</v>
+        <v>598</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>986</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="147" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>521</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>900</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>525</v>
+        <v>901</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>989</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>535</v>
+    <row r="32" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>910</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>826</v>
+        <v>534</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1022</v>
+        <v>941</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>987</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -20902,11 +21071,11 @@
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>646</v>
+      <c r="C33" s="27" t="s">
+        <v>902</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>647</v>
+        <v>135</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>136</v>
@@ -20914,8 +21083,8 @@
       <c r="F33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>138</v>
+      <c r="K33" s="12" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -20926,162 +21095,132 @@
         <v>79</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>658</v>
+        <v>468</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="193" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="171" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>256</v>
+        <v>521</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>260</v>
+        <v>524</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>273</v>
+        <v>535</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>679</v>
+        <v>537</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="97" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>491</v>
+        <v>646</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>492</v>
+        <v>647</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>495</v>
+        <v>137</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="193" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>255</v>
       </c>
@@ -21089,168 +21228,171 @@
         <v>27</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>653</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>654</v>
+        <v>257</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>258</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>656</v>
+        <v>260</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1027</v>
+        <v>677</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>1023</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>657</v>
+        <v>261</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>1028</v>
+        <v>276</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1024</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>1018</v>
+        <v>277</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>1019</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="97" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>173</v>
+        <v>491</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>1029</v>
+        <v>494</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>177</v>
+        <v>495</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="225" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>365</v>
+        <v>559</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>684</v>
+        <v>561</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>678</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>368</v>
+        <v>562</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="117" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>385</v>
+        <v>653</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>386</v>
+        <v>654</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>387</v>
+        <v>655</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>388</v>
+        <v>656</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>389</v>
+        <v>657</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -21261,34 +21403,31 @@
         <v>45</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>686</v>
+        <v>143</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>1032</v>
+        <v>147</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>1028</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>142</v>
       </c>
@@ -21296,34 +21435,34 @@
         <v>45</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>496</v>
+        <v>173</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>497</v>
+        <v>174</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>498</v>
+        <v>175</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>1033</v>
+        <v>176</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>1029</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>500</v>
+        <v>177</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="225" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>142</v>
       </c>
@@ -21331,203 +21470,209 @@
         <v>45</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>603</v>
+        <v>364</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>608</v>
+        <v>365</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>609</v>
+        <v>366</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>688</v>
+        <v>367</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>684</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="K46" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="130" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="117" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>28</v>
+        <v>385</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>977</v>
+        <v>145</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>1035</v>
+        <v>388</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1031</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>205</v>
+        <v>486</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>977</v>
+        <v>145</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1036</v>
+        <v>176</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>1032</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="73" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>977</v>
+        <v>145</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>904</v>
+        <v>499</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>1020</v>
+        <v>1033</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>459</v>
+        <v>603</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>460</v>
+        <v>608</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>977</v>
+        <v>145</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>461</v>
+        <v>609</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>462</v>
+        <v>610</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>1020</v>
+        <v>611</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>1018</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="130" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>906</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>627</v>
+        <v>40</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>628</v>
+        <v>977</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>629</v>
+        <v>41</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>905</v>
+        <v>42</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>1020</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="118" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
@@ -21535,587 +21680,581 @@
         <v>39</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>641</v>
+        <v>204</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>642</v>
+        <v>205</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>977</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>643</v>
+        <v>206</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>644</v>
+        <v>207</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>645</v>
+        <v>208</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>696</v>
+      <c r="A53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>314</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>108</v>
+        <v>315</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1037</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>694</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>705</v>
+        <v>459</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>46</v>
+        <v>977</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>47</v>
+        <v>461</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>706</v>
+        <v>690</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1038</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>49</v>
+        <v>463</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>50</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>486</v>
+        <v>79</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>906</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>487</v>
+        <v>627</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>46</v>
+        <v>628</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>50</v>
+        <v>630</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="118" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>46</v>
+        <v>977</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>700</v>
+        <v>644</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1039</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>50</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>45</v>
+      <c r="A57" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>696</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>568</v>
+        <v>28</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>693</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>227</v>
+        <v>486</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>228</v>
+        <v>487</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>229</v>
+        <v>488</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>702</v>
+        <v>489</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>231</v>
+        <v>490</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>137</v>
+        <v>565</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>301</v>
+        <v>566</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>302</v>
+        <v>567</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>711</v>
+        <v>44</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>708</v>
+        <v>568</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>709</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>1040</v>
+        <v>703</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>266</v>
+        <v>230</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>702</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="C66" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="F66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="116" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="132" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>1042</v>
+        <v>265</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="103" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>1043</v>
+        <v>510</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="116" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>721</v>
+        <v>583</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>714</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="132" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>178</v>
       </c>
@@ -22123,28 +22262,28 @@
         <v>179</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>648</v>
+        <v>180</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>649</v>
+        <v>181</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>650</v>
+        <v>183</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>722</v>
+        <v>184</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>652</v>
+        <v>185</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>186</v>
@@ -22152,403 +22291,406 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>723</v>
+        <v>182</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="103" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>716</v>
+        <v>182</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>1043</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>717</v>
+        <v>533</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>28</v>
+        <v>632</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>59</v>
+        <v>633</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>59</v>
+        <v>182</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>1044</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>717</v>
+        <v>636</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>349</v>
+        <v>648</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>354</v>
+        <v>649</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>54</v>
+        <v>182</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>1045</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>355</v>
+        <v>652</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>725</v>
+        <v>57</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>726</v>
+        <v>128</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>1047</v>
+        <v>54</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="133" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>733</v>
+        <v>80</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>730</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="104" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>425</v>
+        <v>152</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>427</v>
+        <v>154</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>734</v>
+        <v>155</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="174" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>553</v>
+        <v>379</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>554</v>
+        <v>380</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>555</v>
+        <v>381</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>1049</v>
+        <v>382</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="74" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>1050</v>
+        <v>543</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="133" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>62</v>
       </c>
@@ -22556,261 +22698,270 @@
         <v>39</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>622</v>
+        <v>28</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>978</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>624</v>
+        <v>64</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>625</v>
+        <v>65</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>1051</v>
+        <v>733</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>626</v>
+        <v>66</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="118" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="104" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="174" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="74" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="118" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C89" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="271" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="90" spans="1:11" ht="271" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C90" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I90" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="91" spans="1:11" ht="89" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C91" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I91" s="21" t="s">
         <v>1053</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="104" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -22821,233 +22972,221 @@
         <v>45</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>585</v>
+        <v>28</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="H92" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>588</v>
+        <v>744</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>589</v>
+        <v>76</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>749</v>
+        <v>73</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>747</v>
+        <v>279</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>748</v>
+        <v>282</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="104" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C98" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J98" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="321" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="320" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
@@ -23055,34 +23194,34 @@
         <v>27</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>764</v>
+        <v>126</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>759</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="169" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="321" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
@@ -23090,34 +23229,34 @@
         <v>27</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>762</v>
+        <v>131</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>26</v>
       </c>
@@ -23125,69 +23264,69 @@
         <v>27</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>765</v>
+        <v>196</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="175" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>27</v>
+    <row r="102" spans="1:11" ht="89" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>950</v>
+        <v>221</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>946</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K102" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="163" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="320" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -23195,34 +23334,34 @@
         <v>27</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>767</v>
+        <v>320</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="169" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -23230,34 +23369,34 @@
         <v>27</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>760</v>
+        <v>330</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>762</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="103" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
@@ -23265,34 +23404,34 @@
         <v>27</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>603</v>
+        <v>332</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>604</v>
+        <v>333</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>605</v>
+        <v>334</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>681</v>
+        <v>335</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>607</v>
+        <v>336</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="374" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="175" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
@@ -23300,339 +23439,342 @@
         <v>27</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>613</v>
+        <v>409</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>614</v>
+        <v>410</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>615</v>
+        <v>411</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>616</v>
+        <v>412</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="163" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>297</v>
+        <v>420</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>951</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>916</v>
+        <v>422</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>342</v>
+        <v>475</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>344</v>
+        <v>477</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>952</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>917</v>
+        <v>479</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>298</v>
+        <v>942</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="103" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>69</v>
+        <v>604</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>918</v>
+        <v>605</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="K109" s="12" t="s">
-        <v>770</v>
+        <v>607</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>942</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="374" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>168</v>
+        <v>612</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>169</v>
+        <v>613</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>170</v>
+        <v>614</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>772</v>
+        <v>615</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>172</v>
+        <v>616</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>72</v>
+        <v>942</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>549</v>
+        <v>294</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>550</v>
+        <v>295</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>771</v>
+        <v>297</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>72</v>
+        <v>917</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>637</v>
+        <v>342</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>638</v>
+        <v>343</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>769</v>
+        <v>344</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="K112" s="12" t="s">
-        <v>770</v>
+        <v>917</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>979</v>
+        <v>70</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>774</v>
+        <v>71</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>918</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>312</v>
+        <v>917</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>979</v>
+        <v>70</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>325</v>
+        <v>772</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>326</v>
+        <v>172</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>408</v>
+        <v>549</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>413</v>
+        <v>550</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>979</v>
+        <v>70</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>415</v>
+        <v>551</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>416</v>
+        <v>771</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>501</v>
+        <v>637</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>502</v>
+        <v>638</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>979</v>
+        <v>70</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>505</v>
+        <v>639</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>769</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>312</v>
+        <v>640</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -23642,23 +23784,26 @@
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="27" t="s">
-        <v>777</v>
+      <c r="C117" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>979</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>574</v>
+        <v>309</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>575</v>
+        <v>311</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>312</v>
@@ -23666,103 +23811,136 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K118" s="12" t="s">
-        <v>779</v>
+        <v>323</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>28</v>
+        <v>408</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>85</v>
+        <v>413</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K119" s="12" t="s">
-        <v>781</v>
+        <v>417</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>223</v>
+        <v>501</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>780</v>
+        <v>503</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K120" s="12" t="s">
-        <v>779</v>
+        <v>506</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>371</v>
+        <v>39</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>777</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>372</v>
+        <v>573</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>784</v>
+        <v>574</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>374</v>
+        <v>575</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -23773,54 +23951,39 @@
         <v>79</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>399</v>
+        <v>85</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="C123" s="25" t="s">
-        <v>464</v>
+        <v>28</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>785</v>
+        <v>93</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -23831,645 +23994,621 @@
         <v>79</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>471</v>
+        <v>223</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>472</v>
+        <v>224</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>782</v>
+        <v>225</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>780</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>88</v>
+        <v>226</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>788</v>
+        <v>84</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>28</v>
+        <v>371</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>786</v>
+        <v>372</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>784</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K125" s="12" t="s">
-        <v>787</v>
+        <v>374</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>789</v>
+        <v>398</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>790</v>
+        <v>86</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>783</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>91</v>
+        <v>401</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I127" s="21" t="s">
-        <v>1054</v>
+        <v>785</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="25" t="s">
-        <v>659</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="E128" s="4" t="s">
+      <c r="C130" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="I128" s="21" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="K128" s="4" t="s">
+      <c r="H130" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="298" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K129" s="12" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K130" s="12" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>800</v>
+        <v>89</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>217</v>
+        <v>482</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>218</v>
+        <v>483</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>798</v>
+        <v>842</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>1054</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>799</v>
+        <v>485</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>800</v>
+        <v>89</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>802</v>
+        <v>659</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>1055</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K132" s="12" t="s">
-        <v>801</v>
+        <v>664</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="298" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>1056</v>
+        <v>796</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>797</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>809</v>
+    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>794</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>28</v>
+        <v>453</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>807</v>
+        <v>454</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>811</v>
+        <v>218</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>798</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K135" s="20" t="s">
-        <v>810</v>
+        <v>219</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>799</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>976</v>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>817</v>
+        <v>253</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>976</v>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>546</v>
+        <v>283</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>813</v>
+        <v>284</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>1056</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>548</v>
+        <v>285</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>967</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>970</v>
+      <c r="A138" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="J138" s="12" t="s">
-        <v>975</v>
+        <v>807</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>966</v>
+        <v>808</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>971</v>
+      <c r="A139" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="K139" s="12" t="s">
-        <v>966</v>
+        <v>811</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K139" s="20" t="s">
+        <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>827</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>749</v>
+        <v>976</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="H140" s="6" t="s">
-        <v>828</v>
+      <c r="F140" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>817</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="368" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>821</v>
+    <row r="141" spans="1:11" ht="89" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>749</v>
+        <v>976</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>1022</v>
+        <v>547</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>539</v>
+        <v>548</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>821</v>
+      <c r="A142" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="C142" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>823</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>596</v>
+      <c r="C142" s="26" t="s">
+        <v>967</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>975</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="25" t="s">
+      <c r="A143" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C144" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>956</v>
+      <c r="D144" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K144" s="12" t="s">
+        <v>966</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>983</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="368" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>27</v>
+        <v>821</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>749</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>268</v>
+        <v>535</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>957</v>
+        <v>538</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>1022</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>956</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>27</v>
+        <v>821</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>749</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>958</v>
+        <v>595</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>956</v>
+        <v>596</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -24477,63 +24616,63 @@
         <v>27</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>984</v>
+        <v>32</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>832</v>
+      <c r="C148" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>833</v>
+        <v>199</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>956</v>
@@ -24546,29 +24685,29 @@
       <c r="B149" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="27" t="s">
-        <v>980</v>
+      <c r="C149" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>430</v>
+        <v>269</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="I149" s="21" t="s">
-        <v>981</v>
+        <v>271</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>957</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>956</v>
@@ -24582,34 +24721,34 @@
         <v>27</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>445</v>
+        <v>347</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="I150" s="21" t="s">
-        <v>1057</v>
+        <v>835</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>958</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>34</v>
       </c>
@@ -24617,25 +24756,28 @@
         <v>27</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>836</v>
+      <c r="F151" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>830</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>956</v>
@@ -24649,28 +24791,28 @@
         <v>27</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>591</v>
+        <v>418</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>832</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>592</v>
+        <v>423</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>841</v>
+        <v>423</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>833</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>1059</v>
+        <v>985</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>593</v>
+        <v>424</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>956</v>
@@ -24683,29 +24825,29 @@
       <c r="B153" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="25" t="s">
-        <v>617</v>
+      <c r="C153" s="27" t="s">
+        <v>980</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>618</v>
+        <v>430</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>620</v>
+        <v>432</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>1060</v>
+        <v>981</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>621</v>
+        <v>433</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>956</v>
@@ -24713,136 +24855,139 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>242</v>
+        <v>447</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>362</v>
+        <v>36</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>837</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>435</v>
+        <v>592</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>960</v>
+        <v>841</v>
+      </c>
+      <c r="I156" s="21" t="s">
+        <v>1059</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>436</v>
+        <v>593</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>449</v>
+        <v>618</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>450</v>
+        <v>619</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>845</v>
+        <v>620</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>839</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>452</v>
+        <v>621</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -24853,104 +24998,238 @@
         <v>27</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>659</v>
+        <v>238</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>660</v>
+        <v>239</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>661</v>
+        <v>241</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>662</v>
+        <v>242</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>850</v>
+      <c r="A159" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>103</v>
+        <v>360</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>851</v>
+        <v>847</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>1062</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K159" s="12" t="s">
-        <v>852</v>
+        <v>363</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>854</v>
+      <c r="A160" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>856</v>
+        <v>429</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>856</v>
+        <v>846</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K160" s="12" t="s">
-        <v>855</v>
+        <v>436</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="180" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>853</v>
+        <v>237</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>857</v>
+        <v>448</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>1063</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K161" s="12" t="s">
-        <v>858</v>
+        <v>452</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C162" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="I162" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K164" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K165" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C166" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D166" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F162" s="18" t="s">
+      <c r="F166" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G166" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="I162" s="4" t="s">
+      <c r="I166" s="4" t="s">
         <v>961</v>
       </c>
     </row>
@@ -24961,76 +25240,80 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I71" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg"/>
-    <hyperlink ref="I16" r:id="rId2"/>
-    <hyperlink ref="K135" r:id="rId3"/>
-    <hyperlink ref="I65" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg"/>
-    <hyperlink ref="I149" r:id="rId5"/>
-    <hyperlink ref="I144" r:id="rId6"/>
-    <hyperlink ref="I147" r:id="rId7"/>
-    <hyperlink ref="I148" r:id="rId8"/>
-    <hyperlink ref="I77" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg"/>
-    <hyperlink ref="I62" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg"/>
-    <hyperlink ref="I66" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg"/>
-    <hyperlink ref="I154" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg"/>
-    <hyperlink ref="I67" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg"/>
-    <hyperlink ref="I155" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg"/>
-    <hyperlink ref="I86" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg"/>
-    <hyperlink ref="I87" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg"/>
-    <hyperlink ref="I81" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg"/>
-    <hyperlink ref="I157" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg"/>
-    <hyperlink ref="I151" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg"/>
-    <hyperlink ref="I127" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg"/>
-    <hyperlink ref="I68" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg"/>
-    <hyperlink ref="I82" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg"/>
-    <hyperlink ref="I83" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg"/>
-    <hyperlink ref="I152" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg"/>
-    <hyperlink ref="I84" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg"/>
-    <hyperlink ref="I69" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg"/>
-    <hyperlink ref="I70" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg"/>
-    <hyperlink ref="I128" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
-    <hyperlink ref="I158" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
-    <hyperlink ref="I153" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg"/>
-    <hyperlink ref="I150" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg"/>
-    <hyperlink ref="K40" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
-    <hyperlink ref="I40" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg"/>
-    <hyperlink ref="I41" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg"/>
-    <hyperlink ref="J28" r:id="rId35"/>
-    <hyperlink ref="J13" r:id="rId36"/>
-    <hyperlink ref="J27" r:id="rId37"/>
-    <hyperlink ref="J7" r:id="rId38"/>
-    <hyperlink ref="J21" r:id="rId39"/>
-    <hyperlink ref="J19" r:id="rId40"/>
-    <hyperlink ref="J16" r:id="rId41"/>
-    <hyperlink ref="J10" r:id="rId42"/>
-    <hyperlink ref="J24" r:id="rId43"/>
-    <hyperlink ref="J20" r:id="rId44"/>
-    <hyperlink ref="J9" r:id="rId45"/>
-    <hyperlink ref="J12" r:id="rId46"/>
-    <hyperlink ref="J11" r:id="rId47"/>
-    <hyperlink ref="J22" r:id="rId48"/>
-    <hyperlink ref="J14" r:id="rId49"/>
-    <hyperlink ref="J4" r:id="rId50"/>
-    <hyperlink ref="J25" r:id="rId51"/>
-    <hyperlink ref="J18" r:id="rId52"/>
-    <hyperlink ref="J15" r:id="rId53"/>
-    <hyperlink ref="J6" r:id="rId54"/>
-    <hyperlink ref="J17" r:id="rId55"/>
-    <hyperlink ref="J8" r:id="rId56"/>
-    <hyperlink ref="J3" r:id="rId57"/>
-    <hyperlink ref="J5" r:id="rId58"/>
-    <hyperlink ref="I5" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png"/>
-    <hyperlink ref="J23" r:id="rId60"/>
-    <hyperlink ref="I44" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg"/>
-    <hyperlink ref="I31" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg"/>
-    <hyperlink ref="I35" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg"/>
-    <hyperlink ref="I47" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg"/>
-    <hyperlink ref="K46" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
-    <hyperlink ref="I26" r:id="rId66"/>
-    <hyperlink ref="K71" r:id="rId67"/>
-    <hyperlink ref="J71" r:id="rId68"/>
+    <hyperlink ref="I75" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg"/>
+    <hyperlink ref="I20" r:id="rId2"/>
+    <hyperlink ref="K139" r:id="rId3"/>
+    <hyperlink ref="I69" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg"/>
+    <hyperlink ref="I153" r:id="rId5"/>
+    <hyperlink ref="I148" r:id="rId6"/>
+    <hyperlink ref="I151" r:id="rId7"/>
+    <hyperlink ref="I152" r:id="rId8"/>
+    <hyperlink ref="I81" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg"/>
+    <hyperlink ref="I66" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg"/>
+    <hyperlink ref="I70" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg"/>
+    <hyperlink ref="I158" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg"/>
+    <hyperlink ref="I71" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg"/>
+    <hyperlink ref="I159" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg"/>
+    <hyperlink ref="I90" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg"/>
+    <hyperlink ref="I91" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg"/>
+    <hyperlink ref="I85" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg"/>
+    <hyperlink ref="I161" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg"/>
+    <hyperlink ref="I155" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg"/>
+    <hyperlink ref="I131" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg"/>
+    <hyperlink ref="I72" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg"/>
+    <hyperlink ref="I86" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg"/>
+    <hyperlink ref="I87" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg"/>
+    <hyperlink ref="I156" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg"/>
+    <hyperlink ref="I88" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg"/>
+    <hyperlink ref="I73" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg"/>
+    <hyperlink ref="I74" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg"/>
+    <hyperlink ref="I132" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
+    <hyperlink ref="I162" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
+    <hyperlink ref="I157" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg"/>
+    <hyperlink ref="I154" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg"/>
+    <hyperlink ref="K44" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
+    <hyperlink ref="I44" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg"/>
+    <hyperlink ref="I45" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg"/>
+    <hyperlink ref="J32" r:id="rId35"/>
+    <hyperlink ref="J17" r:id="rId36"/>
+    <hyperlink ref="J31" r:id="rId37"/>
+    <hyperlink ref="J11" r:id="rId38"/>
+    <hyperlink ref="J25" r:id="rId39"/>
+    <hyperlink ref="J23" r:id="rId40"/>
+    <hyperlink ref="J20" r:id="rId41"/>
+    <hyperlink ref="J14" r:id="rId42"/>
+    <hyperlink ref="J28" r:id="rId43"/>
+    <hyperlink ref="J24" r:id="rId44"/>
+    <hyperlink ref="J13" r:id="rId45"/>
+    <hyperlink ref="J16" r:id="rId46"/>
+    <hyperlink ref="J15" r:id="rId47"/>
+    <hyperlink ref="J26" r:id="rId48"/>
+    <hyperlink ref="J18" r:id="rId49"/>
+    <hyperlink ref="J8" r:id="rId50"/>
+    <hyperlink ref="J29" r:id="rId51"/>
+    <hyperlink ref="J22" r:id="rId52"/>
+    <hyperlink ref="J19" r:id="rId53"/>
+    <hyperlink ref="J10" r:id="rId54"/>
+    <hyperlink ref="J21" r:id="rId55"/>
+    <hyperlink ref="J12" r:id="rId56"/>
+    <hyperlink ref="J7" r:id="rId57"/>
+    <hyperlink ref="J9" r:id="rId58"/>
+    <hyperlink ref="I9" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png"/>
+    <hyperlink ref="J27" r:id="rId60"/>
+    <hyperlink ref="I48" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg"/>
+    <hyperlink ref="I35" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg"/>
+    <hyperlink ref="I39" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg"/>
+    <hyperlink ref="I51" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg"/>
+    <hyperlink ref="K50" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
+    <hyperlink ref="I30" r:id="rId66"/>
+    <hyperlink ref="K75" r:id="rId67"/>
+    <hyperlink ref="J75" r:id="rId68"/>
+    <hyperlink ref="J6" r:id="rId69" display="https://elasticsearch.cn/slides/130"/>
+    <hyperlink ref="J5" r:id="rId70" display="https://elasticsearch.cn/slides/130"/>
+    <hyperlink ref="J4" r:id="rId71"/>
+    <hyperlink ref="J3" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/static/data/elastic-speakers.xlsx
+++ b/static/data/elastic-speakers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyang/code/html/meetup-site/static/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\html\meetup-site\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8301E8-878C-4356-A116-C1B6F010544E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="286"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16164" tabRatio="286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1137">
   <si>
     <t>date</t>
   </si>
@@ -19417,12 +19418,702 @@
     <t>上海市闵行区虹翔三路东航城 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018-12-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏宏举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江杭州滨江区阡陌路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>459</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号跨星空间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meetup.elasticsearch.cn/event/hangzhou/1001.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟小强（河图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛夏君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛晨鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滴滴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Elasticsearch Query DSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析系统</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的索引和集群隔离实</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋鼠云百亿日志数据下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能优化实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿里云</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实时计算平台实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴出行高级软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞搜索开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋鼠云高级产品运维工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴资深搜索研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中文社区活跃用户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年加入滴滴出行基础平台。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长期从事搜索相关开发工作，有赞搜索系统从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的建设主力。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年加入袋鼠云，参与天弘基金、新网银行等多个金融日志项目交付，拥有多年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运维经验。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年硕士毕业于南开大学，曾就职网易游戏，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年加入阿里巴巴搜索事业部。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海量数据源如何对接，如何快速高效导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是让很多用户痛苦的问题，本次分享主要介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实时计算架构设计和演进过程，以及对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Elasticsearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核的优化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对百亿规模的数据量，如何规划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群、如何判断和排查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群性能问题，本次主题将分享袋鼠云在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引存储性能优化、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在日志场景中的应用实践。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次分享针对有赞在使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的长期实践过程中关于资源隔离问题的案例与总结，以及相关的解决之道。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次分享希望让大家了解到滴滴在挖掘用户查询语句的数据过程中，如何以数据驱动思维来提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的稳定性和成本优化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/hangzhou/1001/speakers/xhj.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/hangzhou/1001/speakers/zxq.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/hangzhou/1001/speakers/mxj.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/images/city/hangzhou/1001/speakers/gcx.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elasticsearch.cn/slides/171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://elasticsearch.cn/slides/16</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19554,6 +20245,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -19576,7 +20274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19620,6 +20318,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19924,33 +20624,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="78.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="42.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="52.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="4"/>
+    <col min="12" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19985,7 +20685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>666</v>
       </c>
@@ -20020,284 +20720,287 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>1090</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>1096</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>1099</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J7" s="21" t="s">
         <v>1102</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H8" s="28" t="s">
         <v>1095</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>1098</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>1101</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H9" s="28" t="s">
         <v>1085</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>1097</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>1100</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>1072</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>1078</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>919</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -20305,244 +21008,241 @@
         <v>12</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>990</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>859</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>923</v>
+        <v>861</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>921</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
+      <c r="C13" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1015</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>924</v>
+      <c r="F13" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>1017</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>997</v>
-      </c>
-      <c r="K13" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>867</v>
+      <c r="C14" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>925</v>
+        <v>862</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>994</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>868</v>
+      <c r="C15" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>869</v>
+        <v>114</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>863</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="K15" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>859</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>870</v>
+      <c r="C16" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>927</v>
+        <v>118</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>923</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>998</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>872</v>
+      <c r="C17" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>988</v>
-      </c>
-      <c r="K17" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -20550,34 +21250,34 @@
         <v>12</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>875</v>
+        <v>141</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K18" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -20585,34 +21285,34 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -20620,34 +21320,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>962</v>
+        <v>871</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>927</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -20655,34 +21355,34 @@
         <v>12</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>881</v>
+        <v>192</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>873</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="231" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -20690,34 +21390,34 @@
         <v>12</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>883</v>
+        <v>203</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>875</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -20725,34 +21425,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>885</v>
+        <v>233</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>877</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -20760,34 +21460,34 @@
         <v>12</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>934</v>
+        <v>879</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>962</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="73.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -20795,34 +21495,34 @@
         <v>12</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>889</v>
+        <v>288</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="249" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -20830,34 +21530,34 @@
         <v>12</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>891</v>
+        <v>291</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>883</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -20865,34 +21565,34 @@
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>893</v>
+        <v>305</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>885</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="233" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -20900,34 +21600,34 @@
         <v>12</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>513</v>
+        <v>356</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>514</v>
+        <v>357</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>895</v>
+        <v>358</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>887</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -20935,34 +21635,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>897</v>
+        <v>392</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="248" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -20970,34 +21670,34 @@
         <v>12</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>597</v>
+        <v>437</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>986</v>
+        <v>439</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>1000</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="147" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -21005,187 +21705,217 @@
         <v>12</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>601</v>
+        <v>441</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>901</v>
+        <v>442</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>893</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>913</v>
+    <row r="32" spans="1:11" ht="250.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>911</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>941</v>
+        <v>513</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>938</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>135</v>
+        <v>526</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>903</v>
+        <v>527</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>920</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="280.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>468</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>898</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>470</v>
+        <v>598</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>986</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>521</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>900</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>525</v>
+        <v>901</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>989</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>535</v>
+    <row r="36" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>910</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>826</v>
+        <v>534</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1022</v>
+        <v>941</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>987</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>138</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>646</v>
+      <c r="C37" s="27" t="s">
+        <v>902</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>647</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>136</v>
@@ -21193,11 +21923,11 @@
       <c r="F37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>138</v>
+      <c r="K37" s="12" t="s">
+        <v>903</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>134</v>
       </c>
@@ -21205,162 +21935,132 @@
         <v>79</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>658</v>
+        <v>468</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="193" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>256</v>
+        <v>521</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>260</v>
+        <v>524</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>273</v>
+        <v>535</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>679</v>
+        <v>537</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="97" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>491</v>
+        <v>646</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>492</v>
+        <v>647</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>495</v>
+        <v>137</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>1019</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="207" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>255</v>
       </c>
@@ -21368,171 +22068,174 @@
         <v>27</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>653</v>
+        <v>256</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>654</v>
+        <v>257</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>258</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>655</v>
+        <v>259</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>656</v>
+        <v>260</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>1027</v>
+        <v>677</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>1023</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>657</v>
+        <v>261</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>1028</v>
+        <v>276</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>1024</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>1018</v>
+        <v>277</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>1019</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>173</v>
+        <v>491</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>1029</v>
+        <v>494</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>177</v>
+        <v>495</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="225" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>365</v>
+        <v>559</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>684</v>
+        <v>561</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>678</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>368</v>
+        <v>562</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="117" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="73.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>385</v>
+        <v>653</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>386</v>
+        <v>654</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>387</v>
+        <v>655</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>388</v>
+        <v>656</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>389</v>
+        <v>657</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>142</v>
       </c>
@@ -21540,34 +22243,31 @@
         <v>45</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>686</v>
+        <v>143</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>1032</v>
+        <v>147</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>1028</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="73" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
@@ -21575,34 +22275,34 @@
         <v>45</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>496</v>
+        <v>173</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>497</v>
+        <v>174</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>498</v>
+        <v>175</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1033</v>
+        <v>176</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>1029</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>500</v>
+        <v>177</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="254.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>142</v>
       </c>
@@ -21610,203 +22310,209 @@
         <v>45</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>603</v>
+        <v>364</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>608</v>
+        <v>365</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K54" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="130" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>906</v>
+        <v>39</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>627</v>
+        <v>40</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>628</v>
+        <v>977</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>629</v>
+        <v>41</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>905</v>
+        <v>42</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>1020</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="118" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>38</v>
       </c>
@@ -21814,587 +22520,581 @@
         <v>39</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>641</v>
+        <v>204</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>642</v>
+        <v>205</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>977</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>643</v>
+        <v>206</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>644</v>
+        <v>207</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>645</v>
+        <v>208</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B61" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G61" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K61" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H68" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="J69" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I70" s="21" t="s">
         <v>1040</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C71" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H71" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="116" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="73" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="I73" s="21" t="s">
         <v>1070</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K73" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="132" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="103" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="133.19999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>178</v>
       </c>
@@ -22402,432 +23102,435 @@
         <v>179</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>648</v>
+        <v>180</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>649</v>
+        <v>181</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>182</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>650</v>
+        <v>183</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>722</v>
+        <v>184</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>652</v>
+        <v>185</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="103.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C79" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>1067</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H79" s="22" t="s">
         <v>1069</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I79" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="J75" s="21" t="s">
+      <c r="J79" s="21" t="s">
         <v>1068</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K79" s="20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="133" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>733</v>
+        <v>80</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>730</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="104" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>425</v>
+        <v>152</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>427</v>
+        <v>154</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>734</v>
+        <v>155</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>729</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="174" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>553</v>
+        <v>379</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>554</v>
+        <v>380</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>555</v>
+        <v>381</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>1049</v>
+        <v>382</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="74" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>978</v>
+        <v>81</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I87" s="21" t="s">
-        <v>1050</v>
+        <v>543</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
@@ -22835,264 +23538,273 @@
         <v>39</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>622</v>
+        <v>28</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="E88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>978</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>624</v>
+        <v>64</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>625</v>
+        <v>65</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>1051</v>
+        <v>733</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>626</v>
+        <v>66</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="118" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="190.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="88.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C93" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="271" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="94" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C94" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I94" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J94" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K94" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="95" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C95" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G95" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I95" s="21" t="s">
         <v>1053</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J95" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="104" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>73</v>
       </c>
@@ -23100,233 +23812,221 @@
         <v>45</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>585</v>
+        <v>28</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="H96" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>588</v>
+        <v>744</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>589</v>
+        <v>76</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="105" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B101" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C101" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="16" t="s">
+      <c r="E101" s="13"/>
+      <c r="F101" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G101" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H101" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K97" s="12" t="s">
+      <c r="K101" s="12" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C102" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J102" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="321" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="320" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -23334,34 +24034,34 @@
         <v>27</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>764</v>
+        <v>126</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>759</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="169" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="325.2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -23369,34 +24069,34 @@
         <v>27</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>762</v>
+        <v>131</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="133.80000000000001" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
@@ -23404,69 +24104,69 @@
         <v>27</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>765</v>
+        <v>196</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="175" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>27</v>
+    <row r="106" spans="1:11" ht="118.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>950</v>
+        <v>221</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>946</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K106" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="163" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="338.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>26</v>
       </c>
@@ -23474,34 +24174,34 @@
         <v>27</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>767</v>
+        <v>320</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="187.8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>26</v>
       </c>
@@ -23509,34 +24209,34 @@
         <v>27</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>760</v>
+        <v>330</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>762</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="103" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>26</v>
       </c>
@@ -23544,34 +24244,34 @@
         <v>27</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>603</v>
+        <v>332</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>604</v>
+        <v>333</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>605</v>
+        <v>334</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>681</v>
+        <v>335</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>607</v>
+        <v>336</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="374" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="192" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>26</v>
       </c>
@@ -23579,472 +24279,511 @@
         <v>27</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>613</v>
+        <v>409</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>614</v>
+        <v>410</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>615</v>
+        <v>411</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>616</v>
+        <v>412</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="408.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C115" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F115" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="K111" s="12" t="s">
+      <c r="K115" s="12" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C116" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="J116" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K116" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+    <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C117" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H117" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J117" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="K113" s="12" t="s">
+      <c r="K117" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+    <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C118" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J118" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K118" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+    <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C119" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H119" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J119" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K119" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C120" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H120" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J120" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="K116" s="12" t="s">
+      <c r="K120" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="27" t="s">
-        <v>777</v>
+      <c r="C121" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>979</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>574</v>
+        <v>309</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>575</v>
+        <v>311</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K122" s="12" t="s">
-        <v>779</v>
+        <v>323</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>28</v>
+        <v>408</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>85</v>
+        <v>413</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>781</v>
+        <v>417</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>223</v>
+        <v>501</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>224</v>
+        <v>502</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>780</v>
+        <v>503</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K124" s="12" t="s">
-        <v>779</v>
+        <v>506</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>371</v>
+        <v>39</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>777</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>372</v>
+        <v>573</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>86</v>
+        <v>979</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>784</v>
+        <v>574</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>776</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>374</v>
+        <v>575</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>84</v>
       </c>
@@ -24052,57 +24791,42 @@
         <v>79</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>399</v>
+        <v>85</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="C127" s="25" t="s">
-        <v>464</v>
+        <v>28</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>785</v>
+        <v>93</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>84</v>
       </c>
@@ -24110,645 +24834,621 @@
         <v>79</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>471</v>
+        <v>223</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>472</v>
+        <v>224</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F128" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="H132" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J132" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K132" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C133" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H129" s="15" t="s">
+      <c r="H133" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J133" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K129" s="12" t="s">
+      <c r="K133" s="12" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C134" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H130" s="6" t="s">
+      <c r="H134" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J134" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C135" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E135" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F135" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H135" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I135" s="21" t="s">
         <v>1054</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J135" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="K135" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C136" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G136" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H136" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="I132" s="21" t="s">
+      <c r="I136" s="21" t="s">
         <v>1055</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J136" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K136" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="298" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+    <row r="137" spans="1:11" ht="312.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C137" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F137" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J137" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K137" s="12" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
+    <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C138" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J138" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="K138" s="12" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C139" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D139" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H139" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J139" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K135" s="12" t="s">
+      <c r="K139" s="12" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C140" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H136" s="13" t="s">
+      <c r="H140" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J140" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K140" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C141" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F137" s="15" t="s">
+      <c r="F141" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="G141" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="H141" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="I137" s="12" t="s">
+      <c r="I141" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J141" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K137" s="12" t="s">
+      <c r="K141" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C142" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D142" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H138" s="6" t="s">
+      <c r="H142" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J142" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K138" s="12" t="s">
+      <c r="K142" s="12" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C143" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H139" s="6" t="s">
+      <c r="H143" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J143" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K139" s="20" t="s">
+      <c r="K143" s="20" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K140" s="12" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="89" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="K141" s="12" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>967</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="K142" s="12" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="K143" s="12" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>827</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>749</v>
+        <v>976</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E144" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="H144" s="6" t="s">
-        <v>828</v>
+      <c r="F144" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>817</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="368" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>821</v>
+    <row r="145" spans="1:11" ht="89.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>749</v>
+        <v>976</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>1022</v>
+        <v>547</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>539</v>
+        <v>548</v>
+      </c>
+      <c r="K145" s="12" t="s">
+        <v>814</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>821</v>
+    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="26" t="s">
+        <v>967</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K148" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C150" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E150" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="F146" s="15" t="s">
+      <c r="F150" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="G146" s="15" t="s">
+      <c r="G150" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="H146" s="8" t="s">
+      <c r="H150" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J150" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="K146" s="12" t="s">
+      <c r="K150" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="I148" s="21" t="s">
-        <v>983</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>34</v>
       </c>
@@ -24756,104 +25456,104 @@
         <v>27</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="I151" s="21" t="s">
-        <v>984</v>
+        <v>32</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>832</v>
+      <c r="C152" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>833</v>
+        <v>199</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="27" t="s">
-        <v>980</v>
+      <c r="C153" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>430</v>
+        <v>269</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="I153" s="21" t="s">
-        <v>981</v>
+        <v>271</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>957</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>34</v>
       </c>
@@ -24861,34 +25561,34 @@
         <v>27</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>445</v>
+        <v>347</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="I154" s="21" t="s">
-        <v>1057</v>
+        <v>835</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>958</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="74.400000000000006" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>34</v>
       </c>
@@ -24896,31 +25596,34 @@
         <v>27</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>836</v>
+      <c r="F155" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>830</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>34</v>
       </c>
@@ -24928,203 +25631,206 @@
         <v>27</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>591</v>
+        <v>418</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>832</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>592</v>
+        <v>423</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>841</v>
+        <v>423</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>833</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>1059</v>
+        <v>985</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>593</v>
+        <v>424</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="25" t="s">
-        <v>617</v>
+      <c r="C157" s="27" t="s">
+        <v>980</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>618</v>
+        <v>430</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>620</v>
+        <v>432</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1060</v>
+        <v>981</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>621</v>
+        <v>433</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>242</v>
+        <v>447</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>362</v>
+        <v>36</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>837</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="I159" s="21" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>435</v>
+        <v>592</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>960</v>
+        <v>841</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>1059</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>436</v>
+        <v>593</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>449</v>
+        <v>618</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>450</v>
+        <v>619</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>845</v>
+        <v>620</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>839</v>
       </c>
       <c r="I161" s="21" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>452</v>
+        <v>621</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>237</v>
       </c>
@@ -25132,188 +25838,330 @@
         <v>27</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>659</v>
+        <v>238</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>660</v>
+        <v>239</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>661</v>
+        <v>241</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I162" s="21" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>662</v>
+        <v>242</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="195" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="I165" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="I166" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C167" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H163" s="8" t="s">
+      <c r="H167" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J167" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K163" s="12" t="s">
+      <c r="K167" s="12" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C168" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="H164" s="6" t="s">
+      <c r="H168" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="J164" s="4" t="s">
+      <c r="J168" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K164" s="12" t="s">
+      <c r="K168" s="12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C169" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="H169" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="J165" s="4" t="s">
+      <c r="J169" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K165" s="12" t="s">
+      <c r="K169" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C166" s="25" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C170" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D170" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F170" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G170" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="I170" s="4" t="s">
         <v>961</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:J162">
-    <sortCondition descending="1" ref="A152"/>
+  <sortState ref="A2:J166">
+    <sortCondition descending="1" ref="A156"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I75" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg"/>
-    <hyperlink ref="I20" r:id="rId2"/>
-    <hyperlink ref="K139" r:id="rId3"/>
-    <hyperlink ref="I69" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg"/>
-    <hyperlink ref="I153" r:id="rId5"/>
-    <hyperlink ref="I148" r:id="rId6"/>
-    <hyperlink ref="I151" r:id="rId7"/>
-    <hyperlink ref="I152" r:id="rId8"/>
-    <hyperlink ref="I81" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg"/>
-    <hyperlink ref="I66" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg"/>
-    <hyperlink ref="I70" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg"/>
-    <hyperlink ref="I158" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg"/>
-    <hyperlink ref="I71" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg"/>
-    <hyperlink ref="I159" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg"/>
-    <hyperlink ref="I90" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg"/>
-    <hyperlink ref="I91" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg"/>
-    <hyperlink ref="I85" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg"/>
-    <hyperlink ref="I161" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg"/>
-    <hyperlink ref="I155" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg"/>
-    <hyperlink ref="I131" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg"/>
-    <hyperlink ref="I72" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg"/>
-    <hyperlink ref="I86" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg"/>
-    <hyperlink ref="I87" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg"/>
-    <hyperlink ref="I156" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg"/>
-    <hyperlink ref="I88" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg"/>
-    <hyperlink ref="I73" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg"/>
-    <hyperlink ref="I74" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg"/>
-    <hyperlink ref="I132" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
-    <hyperlink ref="I162" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg"/>
-    <hyperlink ref="I157" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg"/>
-    <hyperlink ref="I154" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg"/>
-    <hyperlink ref="K44" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
-    <hyperlink ref="I44" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg"/>
-    <hyperlink ref="I45" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg"/>
-    <hyperlink ref="J32" r:id="rId35"/>
-    <hyperlink ref="J17" r:id="rId36"/>
-    <hyperlink ref="J31" r:id="rId37"/>
-    <hyperlink ref="J11" r:id="rId38"/>
-    <hyperlink ref="J25" r:id="rId39"/>
-    <hyperlink ref="J23" r:id="rId40"/>
-    <hyperlink ref="J20" r:id="rId41"/>
-    <hyperlink ref="J14" r:id="rId42"/>
-    <hyperlink ref="J28" r:id="rId43"/>
-    <hyperlink ref="J24" r:id="rId44"/>
-    <hyperlink ref="J13" r:id="rId45"/>
-    <hyperlink ref="J16" r:id="rId46"/>
-    <hyperlink ref="J15" r:id="rId47"/>
-    <hyperlink ref="J26" r:id="rId48"/>
-    <hyperlink ref="J18" r:id="rId49"/>
-    <hyperlink ref="J8" r:id="rId50"/>
-    <hyperlink ref="J29" r:id="rId51"/>
-    <hyperlink ref="J22" r:id="rId52"/>
-    <hyperlink ref="J19" r:id="rId53"/>
-    <hyperlink ref="J10" r:id="rId54"/>
-    <hyperlink ref="J21" r:id="rId55"/>
-    <hyperlink ref="J12" r:id="rId56"/>
-    <hyperlink ref="J7" r:id="rId57"/>
-    <hyperlink ref="J9" r:id="rId58"/>
-    <hyperlink ref="I9" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png"/>
-    <hyperlink ref="J27" r:id="rId60"/>
-    <hyperlink ref="I48" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg"/>
-    <hyperlink ref="I35" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg"/>
-    <hyperlink ref="I39" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg"/>
-    <hyperlink ref="I51" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg"/>
-    <hyperlink ref="K50" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html"/>
-    <hyperlink ref="I30" r:id="rId66"/>
-    <hyperlink ref="K75" r:id="rId67"/>
-    <hyperlink ref="J75" r:id="rId68"/>
-    <hyperlink ref="J6" r:id="rId69" display="https://elasticsearch.cn/slides/130"/>
-    <hyperlink ref="J5" r:id="rId70" display="https://elasticsearch.cn/slides/130"/>
-    <hyperlink ref="J4" r:id="rId71"/>
-    <hyperlink ref="J3" r:id="rId72"/>
+    <hyperlink ref="I79" r:id="rId1" display="https://meetup.elasticsearch.cn/static/images/organizer/bf.jpg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K143" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I73" r:id="rId4" display="https://meetup.elasticsearch.cn/static/images/organizer/yzt.jpg" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I157" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I152" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I155" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I156" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I85" r:id="rId9" display="http://meetup.elasticsearch.loc/static/images/speakers/cc.jpg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I70" r:id="rId10" display="http://meetup.elasticsearch.loc/static/images/speakers/cg.jpg" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I74" r:id="rId11" display="http://meetup.elasticsearch.loc/static/images/speakers/dx.jpg" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I162" r:id="rId12" display="http://meetup.elasticsearch.loc/static/images/speakers/hc.jpg" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I75" r:id="rId13" display="http://meetup.elasticsearch.loc/static/images/speakers/lbj.jpg" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I163" r:id="rId14" display="http://meetup.elasticsearch.loc/static/images/speakers/lg.jpg" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I94" r:id="rId15" display="http://meetup.elasticsearch.loc/static/images/speakers/lz.jpg" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I95" r:id="rId16" display="http://meetup.elasticsearch.loc/static/images/speakers/ns.jpg" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I89" r:id="rId17" display="http://meetup.elasticsearch.loc/static/images/speakers/qsx.jpg" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I165" r:id="rId18" display="http://meetup.elasticsearch.loc/static/images/speakers/sj.jpg" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I159" r:id="rId19" display="http://meetup.elasticsearch.loc/static/images/speakers/txn.jpg" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I135" r:id="rId20" display="http://meetup.elasticsearch.loc/static/images/speakers/why.jpg" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I76" r:id="rId21" display="http://meetup.elasticsearch.loc/static/images/speakers/wwj.jpg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I90" r:id="rId22" display="http://meetup.elasticsearch.loc/static/images/speakers/xsx.jpg" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I91" r:id="rId23" display="http://meetup.elasticsearch.loc/static/images/speakers/ywj.jpg" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I160" r:id="rId24" display="http://meetup.elasticsearch.loc/static/images/speakers/ybz.jpg" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I92" r:id="rId25" display="http://meetup.elasticsearch.loc/static/images/speakers/zld.jpg" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I77" r:id="rId26" display="http://meetup.elasticsearch.loc/static/images/speakers/zhy.jpg" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I78" r:id="rId27" display="http://meetup.elasticsearch.loc/static/images/speakers/zw.jpg" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I136" r:id="rId28" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I166" r:id="rId29" display="http://meetup.elasticsearch.loc/static/images/speakers/zwl.jpg" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I161" r:id="rId30" display="http://meetup.elasticsearch.loc/static/images/speakers/zl.jpg" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I158" r:id="rId31" display="http://meetup.elasticsearch.loc/static/images/speakers/sbq.jpg" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K48" r:id="rId32" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I48" r:id="rId33" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/clh.jpg" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I49" r:id="rId34" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/dmy.jpg" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J35" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J29" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J32" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J22" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J33" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J14" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J11" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J13" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I13" r:id="rId59" display="http://conf.elasticsearch.loc/static/images/2018/speakers/joen.png" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I52" r:id="rId61" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/hp.jpg" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I39" r:id="rId62" display="https://meetup.elasticsearch.cn/2018/static/shanghai/images/speakers/wb.jpg" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I43" r:id="rId63" display="https://meetup.elasticsearch.cn/2018/static/beijing/images/speakers/hc.jpg" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I55" r:id="rId64" display="https://meetup.elasticsearch.cn/static/images/city/nanjing/1001/speakers/medcl.jpg" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K54" r:id="rId65" display="https://meetup.elasticsearch.cn/2018/shanghai.html" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K79" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J79" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J10" r:id="rId69" display="https://elasticsearch.cn/slides/130" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J9" r:id="rId70" display="https://elasticsearch.cn/slides/130" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J8" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J7" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J6" r:id="rId73" xr:uid="{1D9B5B18-0C37-4242-A23D-E502C52D7720}"/>
+    <hyperlink ref="K6" r:id="rId74" xr:uid="{95696095-F8A3-45B1-8DD8-34622DA04B4E}"/>
+    <hyperlink ref="J5" r:id="rId75" xr:uid="{6AF71D2C-918B-4E6C-A6F3-0B32A0ABBC42}"/>
+    <hyperlink ref="K5" r:id="rId76" xr:uid="{75ACBE4C-024D-4CC6-BE5C-CB17CBCB4769}"/>
+    <hyperlink ref="J4" r:id="rId77" xr:uid="{2A2FA8D5-BB4E-4EDD-88E6-306A57A185D1}"/>
+    <hyperlink ref="K4" r:id="rId78" xr:uid="{603F49C0-5610-4E2C-B747-8A390CEDA5B2}"/>
+    <hyperlink ref="J3" r:id="rId79" xr:uid="{B72DC225-CC4F-43C8-B388-90CF0D00FB5B}"/>
+    <hyperlink ref="K3" r:id="rId80" xr:uid="{923D8638-6346-4A9E-84ED-511F67CCB19D}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>